--- a/test_questions_en_fixed.xlsx
+++ b/test_questions_en_fixed.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zirong/Desktop/CCD_RAG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4324989-0F63-FE42-857B-D41017725EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8E9043-271E-3C4D-B9F0-004A84A5BFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6720" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1280" yWindow="2580" windowWidth="29400" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$120</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="410">
   <si>
     <t>id</t>
   </si>
@@ -40,9 +43,6 @@
     <t>answers</t>
   </si>
   <si>
-    <t>question_en</t>
-  </si>
-  <si>
     <t>RAG</t>
   </si>
   <si>
@@ -80,396 +80,6 @@
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>AccordingtoTCVMconcepts, "DeficiencyPattern" istypicallyseeninyoungandhealthyanimals</t>
-  </si>
-  <si>
-    <t>IntheTCVM "EightPrinciples" method, whichpairofconceptsdescribesthedepthofa disease, suchas "Exterior" and "Interior"?
-A) ColdandHeatB) DeficiencyandExcessC) ExteriorandInteriorD) YinandYang</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ifananimalshowsgeneralweakness, fatigue, anda weakpulse, thismightberelatedtoa "DeficiencyPattern"</t>
-  </si>
-  <si>
-    <t>Accordingtoa historicalstory , whichherbwassaidtohelpZhugeLiang'sarmyfeelwarmduringhungerandcoldandscareawaytheenemy (despitecausinganembarrassingsideeffect)?
-A) BaiHeB) BaJiTianC) SanQiD) DiGuPi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Damp" isa pathogenicfactorcharacterizedbyheaviness, whichcanobstructQiorBloodflowandmayevenmanifestasmasses</t>
-  </si>
-  <si>
-    <t>Accordingtothedescriptionof "AnGongNiuHuangWan", whichorganissymbolizedby "Gong" intheformula'sname?
-A) LungB) LiverC) PericardiumD) Spleen</t>
-  </si>
-  <si>
-    <t>Theherb "EJiao" ismadefromtheglueorgelatinofdonkeyskin</t>
-  </si>
-  <si>
-    <t>Themodified "DiTanTang" formulawasusedtotreatbleedingissuesinanimals</t>
-  </si>
-  <si>
-    <t>Accordingtotheexplanationofthename "WanYingSan" inthesources, themeaningof "WanYing" isclosesttowhichofthefollowing?
-A) SlowResponseB) NoResponseC) AlwaysResponsiveD) ResponsivetoFewCases</t>
-  </si>
-  <si>
-    <t>InTCVM, theKidneydominatestheYangofthewholebody, thustherapyfortonifyingYangalwaysbeginswithtonifyingtheKidney</t>
-  </si>
-  <si>
-    <t>Thedescriptionof "AmydaBieJia", itsmainactionsinclude "NourishYin" and "Softenhardness, removenodules", anditenterswhichChannel-Organs?
-A) Spleen, StomachB) Lung, LargeIntestineC) Liver, KidneyD) Heart, SmallIntestine</t>
-  </si>
-  <si>
-    <t>"BuZhongYiQiTang" iscontraindicatedforpatientswithYinDeficiencywithhecticfever</t>
-  </si>
-  <si>
-    <t>In the composition of a Chinese herbal formula, which of the following is NOT a function of the “Adjuvant (Zuo)” herb?
-A) Address the minor cause of a disease or a secondary Pattern
-B) Suppress the toxicity or overly harsh action of the King/Minister herbs
-C) Assist or enhance the action of the King herb
-D) Balance the overall energy of the whole prescription</t>
-  </si>
-  <si>
-    <t>"Ge Jie San" is an important classical formula for treating chronic cough in horses caused by Lung Yin and Kidney Qi deficiency.</t>
-  </si>
-  <si>
-    <t>In the clinical study of the modified “Di Tan Tang” for treating hyperlipidemia, was the lipid-lowering effect of the treatment group significantly different from the control group?
-A) Not significant (P &gt; 0.05)
-B) Significant (P &lt; 0.01)
-C) Significance level not provided
-D) This clinical study is not mentioned in the sources</t>
-  </si>
-  <si>
-    <t>AccordingtoTCVMpulsetheory, KidneyYinisassociatedwiththeleftsideofthepulse, andKidneyYangisrelatedtotherightsideofthepulse</t>
-  </si>
-  <si>
-    <t>Whichherbalformulawasusedina clinicalstudydescribedinthesourcesfora Damp-HeatPattern?
-A) SiJunZiTangB) SiWuTangC) SiMiaoSanD) BuZhongYiQiTang</t>
-  </si>
-  <si>
-    <t>Thename "QingQiHuaTanWan" reflectsitsfunction, where "QingQi" referstoclearingLungHeat</t>
-  </si>
-  <si>
-    <t>Ananimalshowsthefollowingclinicalsigns: drymouth, irritability/restlessness, relativelyredanddrytongue, thinandrapidpulse. BasedonTraditionalChineseVeterinaryMedicinedifferentiation, whatimbalancedothesesymptomsmostlikelyindicate, andwhatcategoryofmedicinalmaterialsshouldbeconsideredfortreatment?
-A. QiDeficiency; shoulduseQitonifyingherbs. 
-B. YangDeficiency; shoulduseYangwarmingherbs. 
-C. YinDeficiencywithFalseHeat; shoulduseYinnourishingandHeatclearingherbs. 
-D. DampHeat; shoulduseHeatclearingandDampdrainingherbs.</t>
-  </si>
-  <si>
-    <t>"SiJunZiTang", abasicQitonicformula, primarilytargetswhichorgan(s) withitsKingherbs?
-A) LiverandKidneyB) HeartandLungC) Spleen, Lung, andHeartD) KidneyandSpleen</t>
-  </si>
-  <si>
-    <t>Accordingtothesources' clinicalandpharmacologicalstudieson "SiWuTang", itsignificantlyincreasedthenumberofWBCs, RBCs, andHgbinblooddeficientmicemodels</t>
-  </si>
-  <si>
-    <t>TraditionalChineseVeterinaryMedicineherbologyemphasizesthesourceandhistoricalrecordsofmedicinalmaterials. Theoriginalreferencematerialformanysingleherbscanbetracedbacktowhichtext, consideredtheearliestexistingChinesemateriamedicamonograph?
-A. BenCaoGangMuB. ShangHanZaBingLunC. ShenNongBenCaoJingD. QianJinYaoFang</t>
-  </si>
-  <si>
-    <t>Accordingtotheclinicalstudieson "DaDingFengZhu" inthesources, itshowedpotentialtoimprovebonemineralmetabolismdisorderinpatientswithChronicRenalInsufficiency (CRI)</t>
-  </si>
-  <si>
-    <t>"DiGuPi" istherootbarkofwhichplant?
-A) EpimediumB) LyciumGouQiZiC) ShanYaoD) BaJiTian</t>
-  </si>
-  <si>
-    <t>Accordingtotheclinicalstudyon "DaHuoLuoDan" inthesources, itsantiepilepticeffectwasremarkablysuperiortoPhenytoinsodium (P &lt; 0.05)</t>
-  </si>
-  <si>
-    <t>InthelayersofTCVMpathologicaldevelopment, accordingtothesources, the "Ying (Nutrient)" stageisgenerallyconsidereddeeperandmoreseverethanwhichstage?
-A) Wei (Defense) stageB) QistageC) Xue (Blood) stageD) Exteriorstage</t>
-  </si>
-  <si>
-    <t>themodified "DiTanTang" formulaincludes "SanQi (Notoginseng)" asaningredient, andthisstudywasforthetreatmentofhyperlipidemia</t>
-  </si>
-  <si>
-    <t>Accordingtotheexplanationofthename "QiLiSan", whatratioof "Liang" does "Li" representinancientChineseweightunits?
-A) One-thousandth (1/1000)
-B) One-hundredth (1/100)
-C) Seven-tenths (7/10)</t>
-  </si>
-  <si>
-    <t>Lieque (LU-7) isa commonacupointfortreatingcoughandcervicalpainindogs.</t>
-  </si>
-  <si>
-    <t>Hegu (LI-4) isonlysuitablefortreatingtoothache, notforusewhenthereisa fever.</t>
-  </si>
-  <si>
-    <t>Yingxiang (LI-20) islocatedontheoutsideofthenoseandcanrelievenasalcongestionandrunnynoseofdogsandcats.</t>
-  </si>
-  <si>
-    <t>Shenmen (HT-7) iscommonlyusedindoganxietyandsleepdisorders.</t>
-  </si>
-  <si>
-    <t>Houxi (SI-3) belongstothesmallintestinemeridianandcanrelievelumbardischerniation.</t>
-  </si>
-  <si>
-    <t>Shaohai (HT-3) belongstotheHeartMeridianHepoint, mainlytreatingelbowjointpainandchestpain.</t>
-  </si>
-  <si>
-    <t>Quchi (LI-11) isa waterhole, anditsheat-clearingeffectisnotasgoodasChize (LU-5).</t>
-  </si>
-  <si>
-    <t>Carpalbone (SI-4) iscommonlyusedinclinicalpracticeforwristosteoarthritisindogsandcats.</t>
-  </si>
-  <si>
-    <t>Incasesofwind-heatcough, LI-4, LI-11 andGV-14 canclearawayheatandremovewind.</t>
-  </si>
-  <si>
-    <t>LU-9 istheoriginalpointofthelungmeridianandalsotheMaihuipoint.</t>
-  </si>
-  <si>
-    <t>LI-10 Itiscontraindicatedwhensufferingfromforearmpainbecauseitonlytreatsimmunediseases.</t>
-  </si>
-  <si>
-    <t>SI-16 (Skylight) islocated 3 inchesnexttothecervicalspineof 2-3, andismainlyusedtotreatdeafnessandcervicalpain.</t>
-  </si>
-  <si>
-    <t>LU-5 inthelungmeridianisa goldpoint, soitis "wood".</t>
-  </si>
-  <si>
-    <t>LI-15 (ShoulderWell) issuitableforshoulderpainandcervicalpain.</t>
-  </si>
-  <si>
-    <t>HT-9 isa woodacupointintheheartmeridian, whichcanbecuredforcoma.</t>
-  </si>
-  <si>
-    <t>Whichofthefollowingacupointsismostcommonlyusedtotreatpets’ chroniccough?
-ALU-1 ZhongfuB LU-9 TaiyuanC LI-4 Hegu</t>
-  </si>
-  <si>
-    <t>Ifa doghasa congestionandrunnynose, whatistheacupointthatisrecommendedtoacupunctureat 0.1 inchontheoutsideofthenosewing? ALI-20 BLI-11 CLU-7</t>
-  </si>
-  <si>
-    <t>WhichareaistheforelimboftheDivineGate (HT-7) located?
-AelbowcrossboneB lateraldepressionofwristcrossboneC posterioredgeofshoulderjoint</t>
-  </si>
-  <si>
-    <t>Recommendedforwind-heatcoughandacupointmatchingdoesnotincludewhichofthefollowing?
-ALI-11 BLU-5 CBL-23</t>
-  </si>
-  <si>
-    <t>Whichofthefollowingpointsisthelunglutepoint + theintersectionoftheeightRenmeridians?
-ALU-7 BLU-1 CLU-5</t>
-  </si>
-  <si>
-    <t>ThemainpropertiesofQuchi (LI-11) are:
-AWaterpointB FirepointC Thelocationis "thekeypointtoclearheat"</t>
-  </si>
-  <si>
-    <t>Indogarrhythmiaacupoints, emergencybloodlettingisoftentaken:
-AHT-9 BHT-1 CHT-3</t>
-  </si>
-  <si>
-    <t>WhichofthefollowingacupointsbelongtothesmallintestinemeridianHepoint, whichoftentreatsepilepsyandelbowpain?
-ASI-4 BSI-8 CSI-9</t>
-  </si>
-  <si>
-    <t>Themotherpoint (fiveelements) ofthelungmeridianare:
-ALU-5 BLU-9 CLU-10</t>
-  </si>
-  <si>
-    <t>ThemainlocationdescriptionofSI-16 iscorrectas:
-A 2-3 3 3 inchesapartfromthedorsalmidlineofthecervicalvertebraeB sagginganterioredgeofthescapulaC lateralelbowconcave</t>
-  </si>
-  <si>
-    <t>WhichofthefollowingisnotanindicationforLU-5?
-AdyspneaB ImmuneskindiseaseC Jaundice</t>
-  </si>
-  <si>
-    <t>LI-15 acupuncturedepthrecommendationsare:
-A 0.3 inchB 0.5 inchC 1-1.5 inch</t>
-  </si>
-  <si>
-    <t>Tostimulatethe "Maihuipoint", youshouldchoose:
-ALU-9 BHT-7 CBL-13</t>
-  </si>
-  <si>
-    <t>CommonlyusedacupointsforimmunodeficientdogsarelocatedinLI-11. Howmanyinchesisitdown?
-A 1 inchB 2 inchC 3 inch</t>
-  </si>
-  <si>
-    <t>WhichofthefollowingacupointsbelongtotheHandShaoyinHeartMeridian?
-AShaofu (HT-8) BLieque (LU-7) CQuchi (LI-11)</t>
-  </si>
-  <si>
-    <t>Ifa domesticdogisanxiousorbarkingatnight, whicha simplepointcanhelpcalmthemind? Whatisitsgenerallocation?</t>
-  </si>
-  <si>
-    <t>Inseverenasalcongestion, youcanuseYingxiang (LI-20) inadditiontoaddingwhichlungmeridianpointtoenhancetheeffectofnasalclearance?</t>
-  </si>
-  <si>
-    <t>ExplainthesimplemassagefocusofHegu (LI-4) athome "universalpainrelief".</t>
-  </si>
-  <si>
-    <t>BrieflydescribewhyLI-4, LI-11, GV-14 andLU-5 areusedwhentreatingwind-heatcough?</t>
-  </si>
-  <si>
-    <t>Whichofthecommonclinicalsignsandmostimportantoriginalacupointsindogswithlungqideficiency?</t>
-  </si>
-  <si>
-    <t>Trytonameatleasttwoacupoints, whichcanbeusedtotreatimmune-mediatedskindiseasesindogs.</t>
-  </si>
-  <si>
-    <t>DescriptionofSI-8 attributes (FiveShuacupointcategory) andclinicalindications.</t>
-  </si>
-  <si>
-    <t>WhyisLU-1 called "earlyalarmoflungs"? Listtwoindications.</t>
-  </si>
-  <si>
-    <t>Listanycommonacupointsinthe "pericardiummeridian" inthewind-heatcoughacupoints, andbrieflydescribetheiruses.</t>
-  </si>
-  <si>
-    <t>Trytoexplaintheconceptof "motheracupoint" andusethelungmeridianasanexampletoillustratetheprincipleofselectingacupoints.</t>
-  </si>
-  <si>
-    <t>WhichEnglishabbreviationiscommonlyusedtosummarizetheclinicalbehavioralsignsofCCD? A) DISHAB) DAMNITC) ABCDED) LUPUS</t>
-  </si>
-  <si>
-    <t>Whichofthefollowingisnota clinicalmanifestationcoveredbyDISHA? A) DisorderofdirectionB) ChangeofinteractionwiththeownerC) ChangeofactivityD) Itchyskin</t>
-  </si>
-  <si>
-    <t>StudiesshowthattheestimatedprevalenceofCCDincommunity-olddogs (&gt;8 yearsold) isabout? A) 5% B) 14% C) 30% D) 60%</t>
-  </si>
-  <si>
-    <t>WhataretheproportionsactuallydiagnosedasCCDbyveterinariansinthesamestudy? A) 0.5% B) 1.9% C) 10% D) 25%</t>
-  </si>
-  <si>
-    <t>WhatisthevalueoftheadhesionthicknessoftheinterstitialmoundduringMRI, whichisithelpfultodiagnoseCCD? A) 3 mmB) 5 mmC) 7 mmD) 10 mm</t>
-  </si>
-  <si>
-    <t>Whichdietaryadditiveshavebeenproventoprovidealternativebrainenergyforolderdogsandimprovelearning? A) LongchainsaturatedfattyacidsB) Medium-ChainTriglycerides (MCT) 5 % C) HighproteinD) Highphosphate</t>
-  </si>
-  <si>
-    <t>WhichabilitiesdoestheDNMPtestmainlyevaluatetheolddog? A) AuditoryB) VisualsharpnessC) Short-termvisualspatialmemoryD) Olfactionidentification</t>
-  </si>
-  <si>
-    <t>Whichofthefollowingdrugsisa MAO-BinhibitorandiscommonlyusedtotreatCCD? A) LevetiracetamB) SelegilineC) CarprofenD) Gabapentin</t>
-  </si>
-  <si>
-    <t>Whichnon-pharmacologicaltherapyisthemostrelevanttotheconceptof "cognitivereserve"? A) Medium-chainfattyacidsB) ImagingdiagnosisC) Cognitiveenrichment (sports/socials/toys) D) Antioxidants</t>
-  </si>
-  <si>
-    <t>Whichofthefollowingisnota CCDsupplementlistedinBox 7? A) Omega-3 PUFAB) SAMeC) PhosphatidylserineD) Antibiotics</t>
-  </si>
-  <si>
-    <t>WhichofthefollowingsentencescanbestdetectCCDduringconsultation? A) Haveyouvomitedrecently? B) Isitlostorconfused? C) Weightchanges? D) Decreasedappetite?</t>
-  </si>
-  <si>
-    <t>WhichtreatmentdoesthestudyindicatecanimproveneuroexcitationandattentiondisordersinCCD? A) LevothyroxineB) LevetiracetamC) PrednisoloneD) Atropine</t>
-  </si>
-  <si>
-    <t>WhatisthebestsequenceforMRImicrobleedingdetection? A) FLAIRB) T2* C) T1 weightedD) DWI</t>
-  </si>
-  <si>
-    <t>Whichofthefollowingisnota high-riskbehaviorintheSalvinBehaviorScale? A) WalkingagainstthewallB) NotrecognizingacquaintancesC) ChangeoffecescolorD) Lostcardfurniture</t>
-  </si>
-  <si>
-    <t>Under-diagnosisresearchpointsoutoneofthemainreasonsthathinderclinicaldiagnosis? A) ImagingequipmentB) IschemiatestindicatorsC) IschemiaassessmenttoolD) Sideeffectsofdrugs</t>
-  </si>
-  <si>
-    <t>Olddogsbarkingatnightaremostoftenregardedasbytheowner? A) NormalagingB) CCDsignsC) GastrointestinalproblemsD) Heartdisease</t>
-  </si>
-  <si>
-    <t>Ifa dogisina dazeinfrontofthewaterbowlanddoesnotdrinkwater, whichcategorydoesitbelongtotheSalvinscale? A) ActivityB) DirectionalpositioningC) AppetiteD) Waterdrinkingbehavior</t>
-  </si>
-  <si>
-    <t>AfterthedogisdiagnosedwithCCD, thefollowingdailybehaviorsbestprovidecognitiveenrichment? A) 10% walkB) SniffingtreasurehuntC) ReduceinteractionD) Endofmovement</t>
-  </si>
-  <si>
-    <t>WhattypeofCCDindicatordoesthedogwaitforreleaseonthedoorhingeside? A) SpatialdislocationB) SleepdisorderC) DietarychangesD) Aggressive</t>
-  </si>
-  <si>
-    <t>WhichofthefollowingarecommonsymptomsofCCDatnight? A) OverdrinkingB) Continuoussleepfor 10hC) WakeupatnightD) Energeticinthemorning</t>
-  </si>
-  <si>
-    <t>CCDissimilartohumanAlzheimerdiseaseinthe β-amyloidaccumulationmechanism.</t>
-  </si>
-  <si>
-    <t>Intermodaladhesionthickness &gt;5 mmcansupportCCDdiagnosis.</t>
-  </si>
-  <si>
-    <t>MCTsupplementationhaslittleeffectondogbrainenergy.</t>
-  </si>
-  <si>
-    <t>TheDNMPtestmainlyevaluatesauditorymemory.</t>
-  </si>
-  <si>
-    <t>CCDbehavioralsymptomsareoftenmistakenfornormalagingbytheowner.</t>
-  </si>
-  <si>
-    <t>HinDISHAstandsforhousesoiling.</t>
-  </si>
-  <si>
-    <t>CCDdogswithterminalADhumansarealsounabletoeatontheirown.</t>
-  </si>
-  <si>
-    <t>Omega-3 PUFAislistedasoneoftherecommendednutrientsforCCD.</t>
-  </si>
-  <si>
-    <t>Thelackofstandardizedquestionnairesisoneofthereasonsforthelowdiagnosisrate.</t>
-  </si>
-  <si>
-    <t>LevetiracetamisonlyvalidinhumanAD, andnoevidenceisavailabletodogs.</t>
-  </si>
-  <si>
-    <t>MRIventricularenlargementisalsoseeninnormalolddogs, nota CCD-specificindicator.</t>
-  </si>
-  <si>
-    <t>Smallelderlydogsaremorelikelytoexperienceminorbleedingthanlargedogs.</t>
-  </si>
-  <si>
-    <t>TheT2* sequencehelpsdetectmicro-hemorrhagesinthebrain.</t>
-  </si>
-  <si>
-    <t>Selegilinemayonlyproducenonspecificactivityratherthantrulyimprovecognition.</t>
-  </si>
-  <si>
-    <t>IncreasedenvironmentalstimulationcandelayCCDdegeneration.</t>
-  </si>
-  <si>
-    <t>IfthegenusCCDofthegenusgenusisdefinitelynotimproved.</t>
-  </si>
-  <si>
-    <t>ThedogisdazedinfrontofthewaterbowlmaybeoneoftheCCDwarnings.</t>
-  </si>
-  <si>
-    <t>CCDonlyappearsindogsovertheageof 14.</t>
-  </si>
-  <si>
-    <t>Ifa doggetsstuckinthefurniture, itmustbea lossofvisionandhasnothingtodowithCCD.</t>
-  </si>
-  <si>
-    <t>WhichstructuralthicknessismeasuredbyCCDimagingdiagnosticconstant?</t>
-  </si>
-  <si>
-    <t>WhatdoesS inDISHAstandfor?</t>
-  </si>
-  <si>
-    <t>NarrativeofthetwomajoreffectsofMCTonthebrainofolddogs.</t>
-  </si>
-  <si>
-    <t>Pleaselisttwolaboratorybehaviorteststoevaluatedogcognition.</t>
-  </si>
-  <si>
-    <t>WhatarethemainobstaclestoclinicalfailuretodetectCCDearly?</t>
-  </si>
-  <si>
-    <t>Pleasegivetheownerthreesuggestionsforenrichinghomecognition.</t>
-  </si>
-  <si>
-    <t>ListtwoMRIsthatcansupportCCD.</t>
-  </si>
-  <si>
-    <t>A 10-year-olddogwakesupandbarksinthemiddleofthenight. Whatcantheownerdo?</t>
-  </si>
-  <si>
-    <t>Whatdiseaseshoulddogspayattentiontowhentheygetlostwhentheyarefamiliarwiththeenvironment?</t>
-  </si>
-  <si>
-    <t>WhataretheearlywarningpromptsthatthedogshouldbetakenforCCDinspection?</t>
   </si>
   <si>
     <t>Deficiency Patterns are often seen in geriatric patients with chronic illnesses.The Deficiency Pattern is often seen in older patients with chronic illnesses.</t>
@@ -483,14 +93,6 @@
   </si>
   <si>
     <t>In ancient France, Bai He repre-sented the majesty of the royal house.</t>
-  </si>
-  <si>
-    <t>Chapter 1: Herbs to Tonify Defi ciency 61
-4. Urinary incontinence or increased frequency Combine with : Psoralea Bu Gu Zhi and Rubus Fu Pen
-Zi , Alpinia Yi Zhi Ren 5. To strengthen bone degeneration and help in repair
-of bone fractures Combine with : Dipsacus Xu Duan
-History and Comments: 1. Ba Ji Tian was accidentally used and helped Zhuge
-Liang ’ s army. Zhuge Liang (181 – 234 CE) was the most famous statesman and strategic general in Chinese history. He was the Chief Chancellor of the Shu Kingdom (known as Si - chuan today) during the Three Kingdoms period (220 – 280 CE). Zhuge Liang marched south to conquer the barbaric tribes and devised a clever plan to capture the tribal King. He commanded General Zhang Yi to lead one thousand soldiers to hide in a valley. The troops were to move in behind the barbarian tribes entering the valley and prevent their escape, trapping them. Zhuge Liang sent Zhang Yi to his task with a fi nal warning that “ Anyone who fails to execute the plan will be beheaded. ” When the troops failed their task, Zhang Yi was afraid that he and his subordinates would all be killed. Attempting to avert mortal punishment, he wrote a report explaining the reason for the failure. He explained that a 3 - day storm cut off pro-visions from the troops waiting in ambush in the valley. The cold and hungry soldiers ate the roots of the nearby grasses. One herb ( Ba Ji Tian ) with a white and purple root, tender texture, fl eshy appear-ance, and a sweet, slightly spicy taste was particu-larly popular among the men. It deterred hunger and kept them warm, so everyone enjoyed eating it. However, after eating the herb for several days, all the soldiers suffered from an embarrassing ailment. Every man had a long - lasting erection he could hardly bear, and he could not stop groaning. The groaning sound from the one thousand soldiers reverberated in the valley like a roaring wind, which scared away the enemy. Thus, the army won the battle but did not capture all the barbaric tribe members. When Zhuge Liang heard the story, he summarized the battle by writing: “ Ba Ji pointed to the sky, gave man ’ s power, and made the enemy run away. We all would enjoy having this problem. ” Ba Ji literally refers to a halberd, which is an ancient spearlike weapon. When the two characters are reversed to form “ Ji Ba , ” it becomes a Chinese slang term referring to a man ’ s penis. “ Tian ” literally means sky. Therefore the herb ’ s name “ Ba Ji Tian ” became a testament to the Chief Counselor ’ s sense of humor. Since that time, “ Ba Ji Tian ” has often been used in formulas that tonify the Kidney Yang .</t>
   </si>
   <si>
     <t xml:space="preserve">5. Damp is a pathogen that is heavy and obstructs Qi or Blood fl ow and can yield Stagnation. It can mani-fest as masses or cancer.
@@ -521,9 +123,6 @@
 Channel - Organ: Liver, Kidney
 Actions: 1. Nourish Yin , anchor Yang 2. Soften hardness, remove nodules
 Form and Preparation: Powder or decoction; cook 30 minutes before adding other ingredients.</t>
-  </si>
-  <si>
-    <t>Cautions and Contraindications: This formula is con-traindicated for patients of Yin Defi ciency with hectic fever.</t>
   </si>
   <si>
     <t>Dr. Xie ’ s Comments: Ge Jie San was a very important classical formula for chronic heaves and lower airway diseases due to Lung Yin and Kidney Qi Defi ciency in horses.</t>
@@ -605,13 +204,7 @@
     <t>“LU-9 is the shu-stream point that belongs to the earth element and is considered to be the mother point of the Lung Channel. Thus, using LU-9 can benefit conditions with deficiency of Lung Qi or Yin.”</t>
   </si>
   <si>
-    <t>“SI-16 Tian-chuang (Celestial Window) — LOCATION: dorsal border of the brachiocephalicus m. at the level of the second cervical vertebral space (C2-C3).”</t>
-  </si>
-  <si>
     <t>“LU-5 … He-sea point (water); Lung Excess Heat, acute cough, dyspnea, hoarse bark, high fever, dermatitis, immune-mediated skin diseases.”</t>
-  </si>
-  <si>
-    <t>“LI-15 Jian-jing — METHOD: perpendicular or oblique insertion, dry-needle depth 1 – 1.5 cun.”</t>
   </si>
   <si>
     <t>“Table 7.16 Application of Influential Points — LU-9: weakness of pulse, disorders of vessels.”</t>
@@ -1190,172 +783,6 @@
         <rFont val="新細明體"/>
         <family val="2"/>
       </rPr>
-      <t>根據資料，草藥「白合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Bai He)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
-      <t>」，又稱「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Lily bulb</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
-      <t>」，在古代法國曾代表王室的威嚴</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Theherb "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
-      <t>白合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>BaiHe", alsoknownas "Lilybulb", representedthemajestyoftheroyalhouseinancientFrance</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">根據歷史故事，哪種草藥據說幫助諸葛亮的軍隊在飢餓寒冷時感到溫暖並嚇跑敵人（儘管帶來了尷尬的副作用）？
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">A) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
-      <t>白合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Bai He)
-B) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
-      <t>巴戟天</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Ba Ji Tian)
-C) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
-      <t>三七</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (San Qi)
-D) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
-      <t>地骨皮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Di Gu Pi)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
       <t>「濕</t>
     </r>
     <r>
@@ -1915,35 +1342,6 @@
         <rFont val="新細明體"/>
         <family val="2"/>
       </rPr>
-      <t>「補中益氣湯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Bu Zhong Yi Qi Tang)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
-      <t>」對於陰虛並伴有潮熱的病患是禁用的</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
       <t>在中藥方劑的組成中，「佐</t>
     </r>
     <r>
@@ -2557,29 +1955,6 @@
   </si>
   <si>
     <r>
-      <t>Oneroleofthe "Messenger (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
-      <t>使</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)" componentina Chineseherbalformulaistoactasa peacemakerandcoordinatoramongherbalcomponents</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -5387,35 +4762,6 @@
         <rFont val="新細明體"/>
         <family val="2"/>
       </rPr>
-      <t>「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Master point for the head and neck, Luo-connecting… confluent point with CV</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
-      <t>」</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
       <t>曲池</t>
     </r>
     <r>
@@ -5651,111 +4997,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">SI-16 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">主要位置描述正確為：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">A </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
-      <t>第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2-3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
-      <t>頸椎背中線旁開</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
-      <t>寸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> B </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
-      <t>肩胛前緣凹陷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> C </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
-      <t>肘外側骨凹</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -5836,75 +5077,6 @@
         <family val="2"/>
       </rPr>
       <t>黃疸</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">LI-15 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">針刺深度建議為：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">A 0.3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
-      <t>寸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> B 0.5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
-      <t>寸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> C 1-1.5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
-      <t>寸</t>
     </r>
   </si>
   <si>
@@ -9531,10 +8703,6 @@
 A LI-11 B LU-5 C BL-23</t>
   </si>
   <si>
-    <t>Which of the following points is the lung lute point + the intersection of the eight Ren meridians?
-A LU-7 B LU-1 C LU-5</t>
-  </si>
-  <si>
     <t>The main properties of Quchi (LI-11) are:
 A Water point B Fire point C The location is "the key point to clear heat"</t>
   </si>
@@ -9551,26 +8719,14 @@
 A LU-5 B LU-9 C LU-10</t>
   </si>
   <si>
-    <t>The main location description of SI-16 is correct as:
-A 2-3 3 3 inches apart from the dorsal midline of the cervical vertebrae B sagging anterior edge of the scapula C lateral elbow concave</t>
-  </si>
-  <si>
     <t>Which of the following is not an indication for LU-5?
 A dyspnea B Immune skin disease C Jaundice</t>
   </si>
   <si>
-    <t>LI-15 acupuncture depth recommendations are:
-A 0.3 inch B 0.5 inch C 1-1.5 inch</t>
-  </si>
-  <si>
     <t>To stimulate the "Maihui point", you should choose:
 A LU-9 B HT-7 C BL-13</t>
   </si>
   <si>
-    <t>Commonly used acupoints for immunodeficient dogs are located in LI-11. How many inches is it down?
-A 1 inch B 2 inch C 3 inch</t>
-  </si>
-  <si>
     <t>Which of the following acupoints belong to the Hand Shaoyin Heart Meridian?
 A Shaofu (HT-8) B Lieque (LU-7) C Quchi (LI-11)</t>
   </si>
@@ -9753,12 +8909,171 @@
   </si>
   <si>
     <r>
+      <t>One role of the "Messenger (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>使</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)" component in a Chinese herbal formula is to act as a peacemaker and coordinator among herbal components</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query_for_embed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>根據資料，草藥「百合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Bai He)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>」，又稱「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lily bulb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>」，在古代法國曾代表王室的威嚴</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>The herb "</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>百</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bai He", also known as "Lily bulb", repre-sented the majesty of the royal house in ancient France</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>「補中益氣湯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Bu Zhong Yi Qi Tang)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>」對於陰虛並伴有潮熱的病患是禁用的</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cautions and Contraindications: This formula is con-traindicated for patients of Yin Defi ciency with hectic fever.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">根據歷史故事，哪種草藥據說幫助諸葛亮的軍隊在飢餓寒冷時感到溫暖並嚇跑敵人（儘管帶來了尷尬的副作用）？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">A) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="新細明體"/>
         <family val="2"/>
       </rPr>
@@ -9771,36 +9086,354 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Bai He", also known as "Lily bulb", represented the majesty of the royal house in ancient France</t>
+      <t xml:space="preserve"> (Bai He)
+B) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>巴戟天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Ba Ji Tian)
+C) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>三七</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (San Qi)
+D) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>地骨皮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Di Gu Pi)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>One role of the "Messenger (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
-      <t>使</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)" component in a Chinese herbal formula is to act as a peacemaker and coordinator among herbal components</t>
-    </r>
+    <t>Chapter 1: Herbs to Tonify Defi ciency 61
+4. Urinary incontinence or increased frequency Combine with : Psoralea Bu Gu Zhi and Rubus Fu Pen
+Zi , Alpinia Yi Zhi Ren 5. To strengthen bone degeneration and help in repair
+of bone fractures Combine with : Dipsacus Xu Duan
+History and Comments: 1. Ba Ji Tian was accidentally used and helped Zhuge
+Liang ’ s army. Zhuge Liang (181 – 234 CE) was the most famous statesman and strategic general in Chinese history. He was the Chief Chancellor of the Shu Kingdom (known as Si - chuan today) during the Three Kingdoms period (220 – 280 CE). Zhuge Liang marched south to conquer the barbaric tribes and devised a clever plan to capture the tribal King. He commanded General Zhang Yi to lead one thousand soldiers to hide in a valley. The troops were to move in behind the barbarian tribes entering the valley and prevent their escape, trapping them. Zhuge Liang sent Zhang Yi to his task with a fi nal warning that “ Anyone who fails to execute the plan will be beheaded. ” When the troops failed their task, Zhang Yi was afraid that he and his subordinates would all be killed. Attempting to avert mortal punishment, he wrote a report explaining the reason for the failure. He explained that a 3 - day storm cut off pro-visions from the troops waiting in ambush in the valley. The cold and hungry soldiers ate the roots of the nearby grasses. One herb ( Ba Ji Tian ) with a white and purple root, tender texture, fl eshy appear-ance, and a sweet, slightly spicy taste was particu-larly popular among the men. It deterred hunger and kept them warm, so everyone enjoyed eating it. However, after eating the herb for several days, all the soldiers suffered from an embarrassing ailment. Every man had a long - lasting erection he could hardly bear, and he could not stop groaning. The groaning sound from the one thousand soldiers reverberated in the valley like a roaring wind, which scared away the enemy. Thus, the army won the battle but did not capture all the barbaric tribe members. When Zhuge Liang heard the story, he summarized the battle by writing: “ Ba Ji pointed to the sky, gave man ’ s power, and made the enemy run away. We all would enjoy having this problem. ” Ba Ji literally refers to a halberd, which is an ancient spearlike weapon. When the two characters are reversed to form “ Ji Ba , ” it becomes a Chinese slang term referring to a man ’ s penis. “ Tian ” literally means sky. Therefore the herb ’ s name “ Ba Ji Tian ” became a testament to the Chief Counselor ’ s sense of humor. Since that time, “ Ba Ji Tian ” has often been used in formulas that tonify the Kidney Yang .</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>query_for_embed</t>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commonly used acupoints for immunodeficient dogs Qian-san-li (LI-10) is located several cun below LI-11?
+A 1 cun B 2 cun C 3 cun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LI-12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">針刺深度建議為：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">A 0.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>寸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> B 0.5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>寸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> C 1-1.5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>寸</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI-12 acupuncture depth recommendations are:
+A 0.3 cun B 0.5 cun C 1-1.5 cun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI-12 Zhou-liao (Elbow Hole) Not a commonly used point (figs. 3.6 and 3.7)
+LOCATION
+1 cun craniodorsal to LI-11 along the line connecting LI-11 and LI-15
+METHOD
+Perpendicular insertion: dry-needle depth 1.5 cun
+INDICATION
+Elbow or shoulder lameness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>犬隻腧穴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> SI-16 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>天窗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>穴的主要位置描述，下列何者最為正確？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+A) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在第一頸椎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (C1) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的後緣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> B) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在肩胛骨前緣的凹陷處</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> C) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在第二頸椎間隙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (C2-C3) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>水平，肱頭肌的背側邊緣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which of the following descriptions is the most correct for the main location of the canine acupoint SI-16 (Tian-chuang)?
+A) At the posterior border of the first cervical vertebra (C1) B) In the depression at the cranial border of the scapula C) At the level of the second cervical vertebral space (C2-C3), at the dorsal border of the brachiocephalicus muscle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI-16 Tian-chuang (Celestial Window) A most commonly used point (fig. 3.29)
+LOCATION
+Dorsal border of the brachiocephalicus muscle at the level of the second cervical vertebral space (C2-C3)
+METHOD
+Perpendicular insertion: dry-needle depth 1.5 cun
+INDICATION
+Diagnostic point (along with TH-15) for ligament or tendon injuries, cervical stiffness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which of the following acupoints is simultaneously the Lung Luo-connecting point and a confluence point with the Ren Channel (Conception Vessel) of the Eight Extraordinary Channels? 
+A LU-7 B LU-1 C LU-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LU-7 Lie-que (Broken Sequence) A very commonly used point (fig. 3.3a, b)
+LOCATION
+On the craniomedial edge of radius, just cranial to the cephalic vein at the level of the distal border of the chestnut, 1.5 cun proximal to the transverse crease of the carpal joint
+METHOD
+Oblique insertion: dry-needle depth 1 cun
+INDICATION
+Master point for the head and neck, Luo-connecting point of the LU Channel, confluent point with CV Channel. Cervical stiffness and pain, headache, facial paralysis, cough, heaves</t>
+  </si>
+  <si>
+    <t>LU-7 Lie-que (Broken Sequence) A very commonly used point (fig. 3.3a, b)
+LOCATION
+On the craniomedial edge of radius, just cranial to the cephalic vein at the level of the distal border of the chestnut, 1.5 cun proximal to the transverse crease of the carpal joint
+METHOD
+Oblique insertion: dry-needle depth 1 cun
+INDICATION
+Master point for the head and neck, Luo-connecting point of the LU Channel, confluent point with CV Channel. Cervical stiffness and pain, headache, facial paralysis, cough, heaves</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9808,7 +9441,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9848,6 +9481,26 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -9900,7 +9553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9913,6 +9566,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10218,25 +9877,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K120"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="96.3984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="60.59765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="59.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="69.19921875" customWidth="1"/>
+    <col min="7" max="7" width="40.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="133" style="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="69.19921875" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16">
+    <row r="1" spans="1:10" ht="16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10252,4191 +9911,3841 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>527</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" ht="48">
+    <row r="2" spans="1:10" ht="48" hidden="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F2" s="3" t="b">
+        <v>116</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="J2" s="3">
         <v>563</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>408</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" ht="96">
+    <row r="3" spans="1:10" ht="111" hidden="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>239</v>
+        <v>117</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>279</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="J3" s="3">
         <v>15</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>409</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" ht="80">
+    <row r="4" spans="1:10" ht="48" hidden="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="F4" s="3" t="b">
+        <v>118</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="J4" s="3">
         <v>15</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>410</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" ht="48">
+    <row r="5" spans="1:10" ht="48" hidden="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="F5" s="3" t="b">
+        <v>393</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="G5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>242</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="J5" s="3">
         <v>563</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>525</v>
-      </c>
     </row>
-    <row r="6" spans="1:11" ht="409.6">
+    <row r="6" spans="1:10" ht="335" hidden="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>243</v>
+        <v>397</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>15</v>
+        <v>281</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>141</v>
+        <v>398</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="J6" s="3">
         <v>15</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>411</v>
-      </c>
     </row>
-    <row r="7" spans="1:11" ht="96">
+    <row r="7" spans="1:10" ht="64" hidden="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F7" s="3" t="b">
+        <v>119</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G7" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="J7" s="3">
         <v>563</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>412</v>
-      </c>
     </row>
-    <row r="8" spans="1:11" ht="96">
+    <row r="8" spans="1:10" ht="112" hidden="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>245</v>
+        <v>120</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>14</v>
+        <v>283</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="J8" s="3">
         <v>563</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>413</v>
-      </c>
     </row>
-    <row r="9" spans="1:11" ht="48">
+    <row r="9" spans="1:10" ht="48" hidden="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="F9" s="3" t="b">
+        <v>121</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G9" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="J9" s="3">
         <v>227</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>414</v>
-      </c>
     </row>
-    <row r="10" spans="1:11" ht="48">
+    <row r="10" spans="1:10" ht="48" hidden="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="F10" s="3" t="b">
+        <v>122</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G10" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="H10" s="3" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>415</v>
-      </c>
     </row>
-    <row r="11" spans="1:11" ht="96">
+    <row r="11" spans="1:10" ht="127" hidden="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>248</v>
+        <v>123</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="J11" s="3">
         <v>395</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>416</v>
-      </c>
     </row>
-    <row r="12" spans="1:11" ht="48">
+    <row r="12" spans="1:10" ht="48" hidden="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>16</v>
+        <v>287</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="J12" s="3">
         <v>14</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>417</v>
-      </c>
     </row>
-    <row r="13" spans="1:11" ht="208">
+    <row r="13" spans="1:10" ht="128" hidden="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>407</v>
+        <v>277</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>14</v>
+        <v>288</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="J13" s="3">
         <v>168</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>418</v>
-      </c>
     </row>
-    <row r="14" spans="1:11" ht="48">
+    <row r="14" spans="1:10" ht="48" hidden="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F14" s="3" t="b">
+        <v>395</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="G14" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>149</v>
+        <v>396</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="J14" s="3">
         <v>167</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>419</v>
-      </c>
     </row>
-    <row r="15" spans="1:11" ht="112">
+    <row r="15" spans="1:10" ht="191" hidden="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>253</v>
+        <v>127</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>14</v>
+        <v>290</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="J15" s="3">
         <v>14</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>420</v>
-      </c>
     </row>
-    <row r="16" spans="1:11" ht="48">
+    <row r="16" spans="1:10" ht="48" hidden="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F16" s="3" t="b">
+        <v>128</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G16" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="H16" s="3" t="s">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="J16" s="3">
         <v>560</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>421</v>
-      </c>
     </row>
-    <row r="17" spans="1:11" ht="112">
+    <row r="17" spans="1:10" ht="172" hidden="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>255</v>
+        <v>129</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>15</v>
+        <v>292</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="J17" s="3">
         <v>168</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>422</v>
-      </c>
     </row>
-    <row r="18" spans="1:11" ht="96">
+    <row r="18" spans="1:10" ht="48" hidden="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F18" s="3" t="b">
+        <v>130</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="G18" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="H18" s="3" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="J18" s="3">
         <v>14</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>423</v>
-      </c>
     </row>
-    <row r="19" spans="1:11" ht="96">
+    <row r="19" spans="1:10" ht="96" hidden="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>257</v>
+        <v>131</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>14</v>
+        <v>294</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="J19" s="3">
         <v>560</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>424</v>
-      </c>
     </row>
-    <row r="20" spans="1:11" ht="64">
+    <row r="20" spans="1:10" ht="48" hidden="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F20" s="3" t="b">
+        <v>132</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G20" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="H20" s="3" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="J20" s="3">
         <v>168</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>425</v>
-      </c>
     </row>
-    <row r="21" spans="1:11" ht="192">
+    <row r="21" spans="1:10" ht="160" hidden="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>259</v>
+        <v>133</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>14</v>
+        <v>296</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="J21" s="3">
         <v>227</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>426</v>
-      </c>
     </row>
-    <row r="22" spans="1:11" ht="48">
+    <row r="22" spans="1:10" ht="48" hidden="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>261</v>
+        <v>135</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>16</v>
+        <v>391</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>262</v>
+        <v>15</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="J22" s="3">
         <v>167</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>526</v>
-      </c>
     </row>
-    <row r="23" spans="1:11" ht="112">
+    <row r="23" spans="1:10" ht="111" hidden="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>263</v>
+        <v>136</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>14</v>
+        <v>297</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="J23" s="3">
         <v>396</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>427</v>
-      </c>
     </row>
-    <row r="24" spans="1:11" ht="96">
+    <row r="24" spans="1:10" ht="64" hidden="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F24" s="3" t="b">
+        <v>137</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G24" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="H24" s="3" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="J24" s="3">
         <v>339</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>428</v>
-      </c>
     </row>
-    <row r="25" spans="1:11" ht="409.6">
+    <row r="25" spans="1:10" ht="335" hidden="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>265</v>
+        <v>138</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>14</v>
+        <v>299</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="J25" s="3">
         <v>168</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>429</v>
-      </c>
     </row>
-    <row r="26" spans="1:11" ht="96">
+    <row r="26" spans="1:10" ht="64" hidden="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F26" s="3" t="b">
+        <v>139</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G26" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="H26" s="3" t="s">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="J26" s="3">
         <v>227</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>430</v>
-      </c>
     </row>
-    <row r="27" spans="1:11" ht="80">
+    <row r="27" spans="1:10" ht="80" hidden="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>267</v>
+        <v>140</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>15</v>
+        <v>301</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="J27" s="3">
         <v>395</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>431</v>
-      </c>
     </row>
-    <row r="28" spans="1:11" ht="64">
+    <row r="28" spans="1:10" ht="48" hidden="1">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F28" s="3" t="b">
+        <v>141</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G28" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="H28" s="3" t="s">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="J28" s="3">
         <v>390</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>432</v>
-      </c>
     </row>
-    <row r="29" spans="1:11" ht="112">
+    <row r="29" spans="1:10" ht="112" hidden="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>269</v>
+        <v>142</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>17</v>
+        <v>303</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>45</v>
+        <v>399</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="J29" s="3">
         <v>403</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>433</v>
-      </c>
     </row>
-    <row r="30" spans="1:11" ht="304">
+    <row r="30" spans="1:10" ht="160" hidden="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="F30" s="3" t="b">
+        <v>143</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="G30" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="H30" s="3" t="s">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="J30" s="3">
         <v>563</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>434</v>
-      </c>
     </row>
-    <row r="31" spans="1:11" ht="80">
+    <row r="31" spans="1:10" ht="96" hidden="1">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>271</v>
+        <v>144</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>17</v>
+        <v>305</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="J31" s="3">
         <v>75</v>
       </c>
-      <c r="K31" s="3" t="s">
-        <v>435</v>
-      </c>
     </row>
-    <row r="32" spans="1:11" ht="95">
+    <row r="32" spans="1:10" ht="95" hidden="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>272</v>
+        <v>145</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>16</v>
+        <v>306</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>273</v>
+        <v>146</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="J32" s="3">
         <v>9</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>436</v>
-      </c>
     </row>
-    <row r="33" spans="1:11" ht="95">
+    <row r="33" spans="1:10" ht="95" hidden="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>275</v>
+        <v>148</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>18</v>
+        <v>307</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>276</v>
+        <v>149</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="J33" s="3">
         <v>15</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>437</v>
-      </c>
     </row>
-    <row r="34" spans="1:11" ht="95">
+    <row r="34" spans="1:10" ht="95" hidden="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>277</v>
+        <v>150</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>16</v>
+        <v>308</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>278</v>
+        <v>151</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="J34" s="3">
         <v>28</v>
       </c>
-      <c r="K34" s="3" t="s">
-        <v>438</v>
-      </c>
     </row>
-    <row r="35" spans="1:11" ht="95">
+    <row r="35" spans="1:10" ht="95" hidden="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>279</v>
+        <v>152</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>16</v>
+        <v>309</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>280</v>
+        <v>153</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="J35" s="3">
         <v>36</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>439</v>
-      </c>
     </row>
-    <row r="36" spans="1:11" ht="95">
+    <row r="36" spans="1:10" ht="95" hidden="1">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>281</v>
+        <v>154</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>16</v>
+        <v>310</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>282</v>
+        <v>155</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="J36" s="3">
         <v>46</v>
       </c>
-      <c r="K36" s="3" t="s">
-        <v>440</v>
-      </c>
     </row>
-    <row r="37" spans="1:11" ht="95">
+    <row r="37" spans="1:10" ht="95" hidden="1">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>283</v>
+        <v>156</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>16</v>
+        <v>311</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>284</v>
+        <v>157</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="J37" s="3">
         <v>33</v>
       </c>
-      <c r="K37" s="3" t="s">
-        <v>441</v>
-      </c>
     </row>
-    <row r="38" spans="1:11" ht="95">
+    <row r="38" spans="1:10" ht="95" hidden="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>285</v>
+        <v>158</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>18</v>
+        <v>312</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>286</v>
+        <v>159</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="J38" s="3">
         <v>21</v>
       </c>
-      <c r="K38" s="3" t="s">
-        <v>442</v>
-      </c>
     </row>
-    <row r="39" spans="1:11" ht="95">
+    <row r="39" spans="1:10" ht="95" hidden="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>287</v>
+        <v>160</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>16</v>
+        <v>313</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>288</v>
+        <v>161</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="J39" s="3">
         <v>49</v>
       </c>
-      <c r="K39" s="3" t="s">
-        <v>443</v>
-      </c>
     </row>
-    <row r="40" spans="1:11" ht="80">
+    <row r="40" spans="1:10" ht="80" hidden="1">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>289</v>
+        <v>162</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>16</v>
+        <v>314</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>290</v>
+        <v>163</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="J40" s="3">
         <v>269</v>
       </c>
-      <c r="K40" s="3" t="s">
-        <v>444</v>
-      </c>
     </row>
-    <row r="41" spans="1:11" ht="95">
+    <row r="41" spans="1:10" ht="95" hidden="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>16</v>
+        <v>315</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>292</v>
+        <v>165</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="J41" s="3">
         <v>153</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>445</v>
-      </c>
     </row>
-    <row r="42" spans="1:11" ht="95">
+    <row r="42" spans="1:10" ht="95" hidden="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>293</v>
+        <v>166</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>18</v>
+        <v>316</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>294</v>
+        <v>167</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="J42" s="3">
         <v>18</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>446</v>
-      </c>
     </row>
-    <row r="43" spans="1:11" ht="95">
+    <row r="43" spans="1:10" ht="95" hidden="1">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>295</v>
+        <v>168</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>16</v>
+        <v>317</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>296</v>
+        <v>169</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="J43" s="3">
         <v>58</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>447</v>
-      </c>
     </row>
-    <row r="44" spans="1:11" ht="95">
+    <row r="44" spans="1:10" ht="95" hidden="1">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>297</v>
+        <v>170</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>18</v>
+        <v>318</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>298</v>
+        <v>171</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="J44" s="3">
         <v>7</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>448</v>
-      </c>
     </row>
-    <row r="45" spans="1:11" ht="95">
+    <row r="45" spans="1:10" ht="95" hidden="1">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>299</v>
+        <v>172</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>16</v>
+        <v>319</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>300</v>
+        <v>173</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="J45" s="3">
         <v>24</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>449</v>
-      </c>
     </row>
-    <row r="46" spans="1:11" ht="95">
+    <row r="46" spans="1:10" ht="95" hidden="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>301</v>
+        <v>174</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>16</v>
+        <v>320</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>302</v>
+        <v>175</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="J46" s="3">
         <v>43</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>450</v>
-      </c>
     </row>
-    <row r="47" spans="1:11" ht="80">
+    <row r="47" spans="1:10" ht="80" hidden="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>303</v>
+        <v>176</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>15</v>
+        <v>321</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>304</v>
+        <v>177</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="J47" s="3">
         <v>153</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>451</v>
-      </c>
     </row>
-    <row r="48" spans="1:11" ht="95">
+    <row r="48" spans="1:10" ht="95" hidden="1">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>305</v>
+        <v>178</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>306</v>
+        <v>179</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="J48" s="3">
         <v>28</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>452</v>
-      </c>
     </row>
-    <row r="49" spans="1:11" ht="95">
+    <row r="49" spans="1:13" ht="95" hidden="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>307</v>
+        <v>180</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>308</v>
+        <v>181</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="J49" s="3">
         <v>36</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>453</v>
-      </c>
     </row>
-    <row r="50" spans="1:11" ht="80">
+    <row r="50" spans="1:13" ht="80" hidden="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>309</v>
+        <v>182</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>14</v>
+        <v>324</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>310</v>
+        <v>183</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="J50" s="3">
         <v>285</v>
       </c>
-      <c r="K50" s="3" t="s">
-        <v>454</v>
-      </c>
     </row>
-    <row r="51" spans="1:11" ht="80">
+    <row r="51" spans="1:13" ht="409.6" hidden="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>311</v>
+        <v>184</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>17</v>
+        <v>407</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>312</v>
+        <v>16</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>409</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="J51" s="3">
         <v>153</v>
       </c>
-      <c r="K51" s="3" t="s">
-        <v>455</v>
+      <c r="M51" s="6" t="s">
+        <v>408</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="95">
+    <row r="52" spans="1:13" ht="95" hidden="1">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>313</v>
+        <v>185</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>314</v>
+        <v>186</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="J52" s="3">
         <v>21</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>456</v>
-      </c>
     </row>
-    <row r="53" spans="1:11" ht="95">
+    <row r="53" spans="1:13" ht="95" hidden="1">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>315</v>
+        <v>187</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>17</v>
+        <v>326</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>316</v>
+        <v>188</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="J53" s="3">
         <v>43</v>
       </c>
-      <c r="K53" s="3" t="s">
-        <v>457</v>
-      </c>
     </row>
-    <row r="54" spans="1:11" ht="95">
+    <row r="54" spans="1:13" ht="95" hidden="1">
       <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>317</v>
+        <v>189</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>15</v>
+        <v>327</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>314</v>
+        <v>186</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="J54" s="3">
         <v>52</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>458</v>
-      </c>
     </row>
-    <row r="55" spans="1:11" ht="80">
+    <row r="55" spans="1:13" ht="80" hidden="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>318</v>
+        <v>190</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>15</v>
+        <v>328</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="J55" s="3">
         <v>17</v>
       </c>
-      <c r="K55" s="3" t="s">
-        <v>459</v>
-      </c>
     </row>
-    <row r="56" spans="1:11" ht="80">
+    <row r="56" spans="1:13" ht="113" hidden="1">
       <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>319</v>
+        <v>115</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>404</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>17</v>
+        <v>405</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>72</v>
+        <v>399</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>168</v>
+        <v>406</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="J56" s="3">
         <v>52</v>
       </c>
-      <c r="K56" s="3" t="s">
-        <v>460</v>
-      </c>
     </row>
-    <row r="57" spans="1:11" ht="80">
+    <row r="57" spans="1:13" ht="80" hidden="1">
       <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>320</v>
+        <v>191</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>14</v>
+        <v>329</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="J57" s="3">
         <v>151</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>461</v>
-      </c>
     </row>
-    <row r="58" spans="1:11" ht="80">
+    <row r="58" spans="1:13" ht="112" hidden="1">
       <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>321</v>
+        <v>401</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>14</v>
+        <v>402</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>170</v>
+        <v>403</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="J58" s="3">
         <v>141</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>462</v>
-      </c>
     </row>
-    <row r="59" spans="1:11" ht="80">
+    <row r="59" spans="1:13" ht="80" hidden="1">
       <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>322</v>
+        <v>192</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>17</v>
+        <v>330</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="J59" s="3">
         <v>241</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>463</v>
-      </c>
     </row>
-    <row r="60" spans="1:11" ht="80">
+    <row r="60" spans="1:13" ht="80" hidden="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>323</v>
+        <v>193</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>15</v>
+        <v>400</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="J60" s="3">
         <v>140</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>464</v>
-      </c>
     </row>
-    <row r="61" spans="1:11" ht="80">
+    <row r="61" spans="1:13" ht="80" hidden="1">
       <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>324</v>
+        <v>194</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>17</v>
+        <v>331</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>173</v>
+        <v>51</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="J61" s="3">
         <v>156</v>
       </c>
-      <c r="K61" s="3" t="s">
-        <v>465</v>
-      </c>
     </row>
-    <row r="62" spans="1:11" ht="95">
+    <row r="62" spans="1:13" ht="95">
       <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>325</v>
+        <v>195</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="J62" s="3">
         <v>36</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>466</v>
-      </c>
     </row>
-    <row r="63" spans="1:11" ht="95">
+    <row r="63" spans="1:13" ht="95">
       <c r="A63" s="3">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>327</v>
+        <v>197</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="J63" s="3">
         <v>9</v>
       </c>
-      <c r="K63" s="3" t="s">
-        <v>467</v>
-      </c>
     </row>
-    <row r="64" spans="1:11" ht="107">
+    <row r="64" spans="1:13" ht="95">
       <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>329</v>
+        <v>199</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="J64" s="3">
         <v>15</v>
       </c>
-      <c r="K64" s="3" t="s">
-        <v>468</v>
-      </c>
     </row>
-    <row r="65" spans="1:11" ht="125">
+    <row r="65" spans="1:10" ht="80">
       <c r="A65" s="3">
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>331</v>
+        <v>201</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>177</v>
+        <v>55</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="J65" s="3">
         <v>285</v>
       </c>
-      <c r="K65" s="3" t="s">
-        <v>469</v>
-      </c>
     </row>
-    <row r="66" spans="1:11" ht="92">
+    <row r="66" spans="1:10" ht="80">
       <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>333</v>
+        <v>203</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>178</v>
+        <v>56</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="J66" s="3">
         <v>153</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>470</v>
-      </c>
     </row>
-    <row r="67" spans="1:11" ht="95">
+    <row r="67" spans="1:10" ht="95">
       <c r="A67" s="3">
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>335</v>
+        <v>205</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>179</v>
+        <v>57</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>471</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="95">
+    <row r="68" spans="1:10" ht="95">
       <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>337</v>
+        <v>207</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>338</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>180</v>
+        <v>58</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="J68" s="3">
         <v>52</v>
       </c>
-      <c r="K68" s="3" t="s">
-        <v>472</v>
-      </c>
     </row>
-    <row r="69" spans="1:11" ht="151">
+    <row r="69" spans="1:10" ht="95">
       <c r="A69" s="3">
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E69" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>340</v>
-      </c>
       <c r="G69" s="3" t="s">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>181</v>
+        <v>59</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="J69" s="3">
         <v>3</v>
       </c>
-      <c r="K69" s="3" t="s">
-        <v>473</v>
-      </c>
     </row>
-    <row r="70" spans="1:11" ht="80">
+    <row r="70" spans="1:10" ht="80">
       <c r="A70" s="3">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>341</v>
+        <v>211</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>86</v>
+        <v>212</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>182</v>
+        <v>60</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="J70" s="3">
         <v>285</v>
       </c>
-      <c r="K70" s="3" t="s">
-        <v>474</v>
-      </c>
     </row>
-    <row r="71" spans="1:11" ht="96">
+    <row r="71" spans="1:10" ht="80">
       <c r="A71" s="3">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>343</v>
+        <v>213</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>87</v>
+        <v>214</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="J71" s="3">
         <v>241</v>
       </c>
-      <c r="K71" s="3" t="s">
-        <v>475</v>
-      </c>
     </row>
-    <row r="72" spans="1:11" ht="224">
+    <row r="72" spans="1:10" ht="224" hidden="1">
       <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>345</v>
+        <v>215</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>17</v>
+        <v>342</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>184</v>
+        <v>62</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>232</v>
+        <v>110</v>
       </c>
       <c r="J72" s="3">
         <v>6</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>476</v>
-      </c>
     </row>
-    <row r="73" spans="1:11" ht="224">
+    <row r="73" spans="1:10" ht="224" hidden="1">
       <c r="A73" s="3">
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>346</v>
+        <v>216</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>19</v>
+        <v>343</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>232</v>
+        <v>110</v>
       </c>
       <c r="J73" s="3">
         <v>6</v>
       </c>
-      <c r="K73" s="3" t="s">
-        <v>477</v>
-      </c>
     </row>
-    <row r="74" spans="1:11" ht="128">
+    <row r="74" spans="1:10" ht="128" hidden="1">
       <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>347</v>
+        <v>217</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>15</v>
+        <v>344</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>186</v>
+        <v>64</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="J74" s="3">
         <v>2</v>
       </c>
-      <c r="K74" s="3" t="s">
-        <v>478</v>
-      </c>
     </row>
-    <row r="75" spans="1:11" ht="128">
+    <row r="75" spans="1:10" ht="128" hidden="1">
       <c r="A75" s="3">
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>348</v>
+        <v>218</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>15</v>
+        <v>345</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>187</v>
+        <v>65</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="J75" s="3">
         <v>2</v>
       </c>
-      <c r="K75" s="3" t="s">
-        <v>479</v>
-      </c>
     </row>
-    <row r="76" spans="1:11" ht="176">
+    <row r="76" spans="1:10" ht="176" hidden="1">
       <c r="A76" s="3">
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>349</v>
+        <v>219</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>15</v>
+        <v>346</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>188</v>
+        <v>66</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="J76" s="3">
         <v>8</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>480</v>
-      </c>
     </row>
-    <row r="77" spans="1:11" ht="176">
+    <row r="77" spans="1:10" ht="176" hidden="1">
       <c r="A77" s="3">
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>15</v>
+        <v>347</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>189</v>
+        <v>67</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="J77" s="3">
         <v>11</v>
       </c>
-      <c r="K77" s="3" t="s">
-        <v>481</v>
-      </c>
     </row>
-    <row r="78" spans="1:11" ht="176">
+    <row r="78" spans="1:10" ht="176" hidden="1">
       <c r="A78" s="3">
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G78" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="H78" s="3" t="s">
-        <v>190</v>
+        <v>68</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="J78" s="3">
         <v>7</v>
       </c>
-      <c r="K78" s="3" t="s">
-        <v>482</v>
-      </c>
     </row>
-    <row r="79" spans="1:11" ht="176">
+    <row r="79" spans="1:10" ht="176" hidden="1">
       <c r="A79" s="3">
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>352</v>
+        <v>222</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>191</v>
+        <v>69</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="J79" s="3">
         <v>12</v>
       </c>
-      <c r="K79" s="3" t="s">
-        <v>483</v>
-      </c>
     </row>
-    <row r="80" spans="1:11" ht="176">
+    <row r="80" spans="1:10" ht="176" hidden="1">
       <c r="A80" s="3">
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="H80" s="3" t="s">
-        <v>192</v>
+        <v>70</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="J80" s="3">
         <v>13</v>
       </c>
-      <c r="K80" s="3" t="s">
-        <v>484</v>
-      </c>
     </row>
-    <row r="81" spans="1:11" ht="176">
+    <row r="81" spans="1:10" ht="176" hidden="1">
       <c r="A81" s="3">
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>354</v>
+        <v>224</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>19</v>
+        <v>351</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>193</v>
+        <v>71</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="J81" s="3">
         <v>13</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>485</v>
-      </c>
     </row>
-    <row r="82" spans="1:11" ht="176">
+    <row r="82" spans="1:10" ht="176" hidden="1">
       <c r="A82" s="3">
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>355</v>
+        <v>225</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>15</v>
+        <v>352</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>194</v>
+        <v>72</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="J82" s="3">
         <v>7</v>
       </c>
-      <c r="K82" s="3" t="s">
-        <v>486</v>
-      </c>
     </row>
-    <row r="83" spans="1:11" ht="176">
+    <row r="83" spans="1:10" ht="176" hidden="1">
       <c r="A83" s="3">
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>356</v>
+        <v>226</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>15</v>
+        <v>353</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>195</v>
+        <v>73</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="J83" s="3">
         <v>12</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>487</v>
-      </c>
     </row>
-    <row r="84" spans="1:11" ht="176">
+    <row r="84" spans="1:10" ht="176" hidden="1">
       <c r="A84" s="3">
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>357</v>
+        <v>227</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>15</v>
+        <v>354</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="J84" s="3">
         <v>8</v>
       </c>
-      <c r="K84" s="3" t="s">
-        <v>488</v>
-      </c>
     </row>
-    <row r="85" spans="1:11" ht="128">
+    <row r="85" spans="1:10" ht="128" hidden="1">
       <c r="A85" s="3">
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G85" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="H85" s="3" t="s">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="J85" s="3">
         <v>3</v>
       </c>
-      <c r="K85" s="3" t="s">
-        <v>489</v>
-      </c>
     </row>
-    <row r="86" spans="1:11" ht="128">
+    <row r="86" spans="1:10" ht="128" hidden="1">
       <c r="A86" s="3">
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="G86" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E86" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="H86" s="3" t="s">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="J86" s="3">
         <v>3</v>
       </c>
-      <c r="K86" s="3" t="s">
-        <v>490</v>
-      </c>
     </row>
-    <row r="87" spans="1:11" ht="128">
+    <row r="87" spans="1:10" ht="128" hidden="1">
       <c r="A87" s="3">
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>360</v>
+        <v>230</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>17</v>
+        <v>357</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="J87" s="3">
         <v>3</v>
       </c>
-      <c r="K87" s="3" t="s">
-        <v>491</v>
-      </c>
     </row>
-    <row r="88" spans="1:11" ht="128">
+    <row r="88" spans="1:10" ht="128" hidden="1">
       <c r="A88" s="3">
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>361</v>
+        <v>231</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>19</v>
+        <v>358</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="J88" s="3">
         <v>4</v>
       </c>
-      <c r="K88" s="3" t="s">
-        <v>492</v>
-      </c>
     </row>
-    <row r="89" spans="1:11" ht="176">
+    <row r="89" spans="1:10" ht="176" hidden="1">
       <c r="A89" s="3">
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>362</v>
+        <v>232</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>15</v>
+        <v>359</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="J89" s="3">
         <v>13</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>493</v>
-      </c>
     </row>
-    <row r="90" spans="1:11" ht="128">
+    <row r="90" spans="1:10" ht="128" hidden="1">
       <c r="A90" s="3">
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>363</v>
+        <v>233</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>17</v>
+        <v>360</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="J90" s="3">
         <v>3</v>
       </c>
-      <c r="K90" s="3" t="s">
-        <v>494</v>
-      </c>
     </row>
-    <row r="91" spans="1:11" ht="128">
+    <row r="91" spans="1:10" ht="128" hidden="1">
       <c r="A91" s="3">
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G91" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="H91" s="3" t="s">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="J91" s="3">
         <v>4</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>495</v>
-      </c>
     </row>
-    <row r="92" spans="1:11" ht="224">
+    <row r="92" spans="1:10" ht="224" hidden="1">
       <c r="A92" s="3">
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>365</v>
+        <v>235</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>16</v>
+        <v>362</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>232</v>
+        <v>110</v>
       </c>
       <c r="J92" s="3">
         <v>6</v>
       </c>
-      <c r="K92" s="3" t="s">
-        <v>496</v>
-      </c>
     </row>
-    <row r="93" spans="1:11" ht="176">
+    <row r="93" spans="1:10" ht="176" hidden="1">
       <c r="A93" s="3">
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>366</v>
+        <v>236</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>18</v>
+        <v>363</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>367</v>
+        <v>237</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="J93" s="3">
         <v>8</v>
       </c>
-      <c r="K93" s="3" t="s">
-        <v>497</v>
-      </c>
     </row>
-    <row r="94" spans="1:11" ht="176">
+    <row r="94" spans="1:10" ht="176" hidden="1">
       <c r="A94" s="3">
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>368</v>
+        <v>238</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>18</v>
+        <v>364</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>205</v>
+        <v>83</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="J94" s="3">
         <v>11</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>498</v>
-      </c>
     </row>
-    <row r="95" spans="1:11" ht="176">
+    <row r="95" spans="1:10" ht="176" hidden="1">
       <c r="A95" s="3">
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>369</v>
+        <v>239</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>18</v>
+        <v>365</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>206</v>
+        <v>84</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="J95" s="3">
         <v>7</v>
       </c>
-      <c r="K95" s="3" t="s">
-        <v>499</v>
-      </c>
     </row>
-    <row r="96" spans="1:11" ht="128">
+    <row r="96" spans="1:10" ht="128" hidden="1">
       <c r="A96" s="3">
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>16</v>
+        <v>366</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>207</v>
+        <v>85</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="J96" s="3">
         <v>3</v>
       </c>
-      <c r="K96" s="3" t="s">
-        <v>500</v>
-      </c>
     </row>
-    <row r="97" spans="1:11" ht="224">
+    <row r="97" spans="1:10" ht="224" hidden="1">
       <c r="A97" s="3">
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>371</v>
+        <v>241</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>16</v>
+        <v>367</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>208</v>
+        <v>86</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>232</v>
+        <v>110</v>
       </c>
       <c r="J97" s="3">
         <v>6</v>
       </c>
-      <c r="K97" s="3" t="s">
-        <v>501</v>
-      </c>
     </row>
-    <row r="98" spans="1:11" ht="224">
+    <row r="98" spans="1:10" ht="224" hidden="1">
       <c r="A98" s="3">
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>372</v>
+        <v>242</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>18</v>
+        <v>368</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>209</v>
+        <v>87</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>232</v>
+        <v>110</v>
       </c>
       <c r="J98" s="3">
         <v>6</v>
       </c>
-      <c r="K98" s="3" t="s">
-        <v>502</v>
-      </c>
     </row>
-    <row r="99" spans="1:11" ht="176">
+    <row r="99" spans="1:10" ht="176" hidden="1">
       <c r="A99" s="3">
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>373</v>
+        <v>243</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>16</v>
+        <v>369</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>210</v>
+        <v>88</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="J99" s="3">
         <v>13</v>
       </c>
-      <c r="K99" s="3" t="s">
-        <v>503</v>
-      </c>
     </row>
-    <row r="100" spans="1:11" ht="128">
+    <row r="100" spans="1:10" ht="128" hidden="1">
       <c r="A100" s="3">
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>374</v>
+        <v>244</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>16</v>
+        <v>370</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>211</v>
+        <v>89</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="J100" s="3">
         <v>3</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>504</v>
-      </c>
     </row>
-    <row r="101" spans="1:11" ht="176">
+    <row r="101" spans="1:10" ht="176" hidden="1">
       <c r="A101" s="3">
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>375</v>
+        <v>245</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>18</v>
+        <v>371</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>212</v>
+        <v>90</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="J101" s="3">
         <v>12</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>505</v>
-      </c>
     </row>
-    <row r="102" spans="1:11" ht="176">
+    <row r="102" spans="1:10" ht="176" hidden="1">
       <c r="A102" s="3">
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>376</v>
+        <v>246</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>16</v>
+        <v>372</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>213</v>
+        <v>91</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="J102" s="3">
         <v>8</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>506</v>
-      </c>
     </row>
-    <row r="103" spans="1:11" ht="176">
+    <row r="103" spans="1:10" ht="176" hidden="1">
       <c r="A103" s="3">
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>377</v>
+        <v>247</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>16</v>
+        <v>373</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>214</v>
+        <v>92</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="J103" s="3">
         <v>8</v>
       </c>
-      <c r="K103" s="3" t="s">
-        <v>507</v>
-      </c>
     </row>
-    <row r="104" spans="1:11" ht="176">
+    <row r="104" spans="1:10" ht="176" hidden="1">
       <c r="A104" s="3">
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>378</v>
+        <v>248</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>16</v>
+        <v>374</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>215</v>
+        <v>93</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="J104" s="3">
         <v>8</v>
       </c>
-      <c r="K104" s="3" t="s">
-        <v>508</v>
-      </c>
     </row>
-    <row r="105" spans="1:11" ht="176">
+    <row r="105" spans="1:10" ht="176" hidden="1">
       <c r="A105" s="3">
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>379</v>
-      </c>
       <c r="F105" s="3" t="s">
-        <v>16</v>
+        <v>375</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="J105" s="3">
         <v>12</v>
       </c>
-      <c r="K105" s="3" t="s">
-        <v>509</v>
-      </c>
     </row>
-    <row r="106" spans="1:11" ht="176">
+    <row r="106" spans="1:10" ht="176" hidden="1">
       <c r="A106" s="3">
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>16</v>
+        <v>376</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>217</v>
+        <v>95</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="J106" s="3">
         <v>13</v>
       </c>
-      <c r="K106" s="3" t="s">
-        <v>510</v>
-      </c>
     </row>
-    <row r="107" spans="1:11" ht="176">
+    <row r="107" spans="1:10" ht="176" hidden="1">
       <c r="A107" s="3">
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>381</v>
+        <v>251</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>18</v>
+        <v>377</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>382</v>
+        <v>252</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="J107" s="3">
         <v>12</v>
       </c>
-      <c r="K107" s="3" t="s">
-        <v>511</v>
-      </c>
     </row>
-    <row r="108" spans="1:11" ht="128">
+    <row r="108" spans="1:10" ht="128" hidden="1">
       <c r="A108" s="3">
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>383</v>
+        <v>253</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>16</v>
+        <v>378</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>218</v>
+        <v>96</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="J108" s="3">
         <v>4</v>
       </c>
-      <c r="K108" s="3" t="s">
-        <v>512</v>
-      </c>
     </row>
-    <row r="109" spans="1:11" ht="128">
+    <row r="109" spans="1:10" ht="128" hidden="1">
       <c r="A109" s="3">
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>384</v>
+        <v>254</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>18</v>
+        <v>379</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>219</v>
+        <v>97</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="J109" s="3">
         <v>3</v>
       </c>
-      <c r="K109" s="3" t="s">
-        <v>513</v>
-      </c>
     </row>
-    <row r="110" spans="1:11" ht="128">
+    <row r="110" spans="1:10" ht="128" hidden="1">
       <c r="A110" s="3">
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>385</v>
+        <v>255</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>18</v>
+        <v>380</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>220</v>
+        <v>98</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="J110" s="3">
         <v>3</v>
       </c>
-      <c r="K110" s="3" t="s">
-        <v>514</v>
-      </c>
     </row>
-    <row r="111" spans="1:11" ht="176">
+    <row r="111" spans="1:10" ht="176">
       <c r="A111" s="3">
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C111" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E111" s="3" t="s">
-        <v>386</v>
+        <v>256</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>127</v>
+        <v>257</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>388</v>
+        <v>258</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="J111" s="3">
         <v>8</v>
       </c>
-      <c r="K111" s="3" t="s">
-        <v>515</v>
-      </c>
     </row>
-    <row r="112" spans="1:11" ht="224">
+    <row r="112" spans="1:10" ht="224">
       <c r="A112" s="3">
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="G112" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="H112" s="3" t="s">
-        <v>221</v>
+        <v>99</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>232</v>
+        <v>110</v>
       </c>
       <c r="J112" s="3">
         <v>6</v>
       </c>
-      <c r="K112" s="3" t="s">
-        <v>516</v>
-      </c>
     </row>
-    <row r="113" spans="1:11" ht="176">
+    <row r="113" spans="1:10" ht="176">
       <c r="A113" s="3">
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C113" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D113" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E113" s="3" t="s">
-        <v>391</v>
+        <v>261</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>129</v>
+        <v>262</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>222</v>
+        <v>100</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="J113" s="3">
         <v>11</v>
       </c>
-      <c r="K113" s="3" t="s">
-        <v>517</v>
-      </c>
     </row>
-    <row r="114" spans="1:11" ht="176">
+    <row r="114" spans="1:10" ht="176">
       <c r="A114" s="3">
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C114" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E114" s="3" t="s">
-        <v>393</v>
+        <v>263</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>130</v>
+        <v>264</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>223</v>
+        <v>101</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="J114" s="3">
         <v>7</v>
       </c>
-      <c r="K114" s="3" t="s">
-        <v>518</v>
-      </c>
     </row>
-    <row r="115" spans="1:11" ht="128">
+    <row r="115" spans="1:10" ht="128">
       <c r="A115" s="3">
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C115" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D115" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E115" s="3" t="s">
-        <v>395</v>
+        <v>265</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>224</v>
+        <v>102</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="J115" s="3">
         <v>3</v>
       </c>
-      <c r="K115" s="3" t="s">
-        <v>519</v>
-      </c>
     </row>
-    <row r="116" spans="1:11" ht="176">
+    <row r="116" spans="1:10" ht="176">
       <c r="A116" s="3">
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C116" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D116" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E116" s="3" t="s">
-        <v>397</v>
+        <v>267</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>132</v>
+        <v>268</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>225</v>
+        <v>103</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="J116" s="3">
         <v>13</v>
       </c>
-      <c r="K116" s="3" t="s">
-        <v>520</v>
-      </c>
     </row>
-    <row r="117" spans="1:11" ht="176">
+    <row r="117" spans="1:10" ht="176">
       <c r="A117" s="3">
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C117" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E117" s="3" t="s">
-        <v>399</v>
+        <v>269</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>133</v>
+        <v>270</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>226</v>
+        <v>104</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="J117" s="3">
         <v>8</v>
       </c>
-      <c r="K117" s="3" t="s">
-        <v>521</v>
-      </c>
     </row>
-    <row r="118" spans="1:11" ht="176">
+    <row r="118" spans="1:10" ht="176">
       <c r="A118" s="3">
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C118" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E118" s="3" t="s">
-        <v>401</v>
+        <v>271</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>134</v>
+        <v>272</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>227</v>
+        <v>105</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="J118" s="3">
         <v>12</v>
       </c>
-      <c r="K118" s="3" t="s">
-        <v>522</v>
-      </c>
     </row>
-    <row r="119" spans="1:11" ht="128">
+    <row r="119" spans="1:10" ht="128">
       <c r="A119" s="3">
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C119" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D119" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E119" s="3" t="s">
-        <v>403</v>
+        <v>273</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>135</v>
+        <v>274</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>228</v>
+        <v>106</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="J119" s="3">
         <v>2</v>
       </c>
-      <c r="K119" s="3" t="s">
-        <v>523</v>
-      </c>
     </row>
-    <row r="120" spans="1:11" ht="224">
+    <row r="120" spans="1:10" ht="224">
       <c r="A120" s="3">
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="C120" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D120" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E120" s="3" t="s">
-        <v>405</v>
+        <v>275</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>136</v>
+        <v>276</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>229</v>
+        <v>107</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>232</v>
+        <v>110</v>
       </c>
       <c r="J120" s="3">
         <v>6</v>
       </c>
-      <c r="K120" s="3" t="s">
-        <v>524</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C120" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="qa"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_questions_en_fixed.xlsx
+++ b/test_questions_en_fixed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zirong/Desktop/CCD_RAG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8E9043-271E-3C4D-B9F0-004A84A5BFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652157F2-FA36-8543-979B-F35042F1E177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="2580" windowWidth="29400" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$120</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="473">
   <si>
     <t>id</t>
   </si>
@@ -9425,16 +9438,309 @@
 Oblique insertion: dry-needle depth 1 cun
 INDICATION
 Master point for the head and neck, Luo-connecting point of the LU Channel, confluent point with CV Channel. Cervical stiffness and pain, headache, facial paralysis, cough, heaves</t>
-  </si>
-  <si>
-    <t>LU-7 Lie-que (Broken Sequence) A very commonly used point (fig. 3.3a, b)
-LOCATION
-On the craniomedial edge of radius, just cranial to the cephalic vein at the level of the distal border of the chestnut, 1.5 cun proximal to the transverse crease of the carpal joint
-METHOD
-Oblique insertion: dry-needle depth 1 cun
-INDICATION
-Master point for the head and neck, Luo-connecting point of the LU Channel, confluent point with CV Channel. Cervical stiffness and pain, headache, facial paralysis, cough, heaves</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飼主</t>
+  </si>
+  <si>
+    <t>中醫</t>
+  </si>
+  <si>
+    <t>在中藥材山藥（Shan Yao）的故事中，這種植物一開始被軍隊命名為什麼？後來這個名稱如何改變？</t>
+  </si>
+  <si>
+    <t>In the story about the Chinese herb Shan Yao, what was the plant initially named by the army, and how did this name change later?</t>
+  </si>
+  <si>
+    <t>一開始被命名為「山遇」（Shan Yu），後來改為「山藥」（Shao Yao/Shan Yao）</t>
+  </si>
+  <si>
+    <t>26 Part 1: Chinese Veterinary Materia Medica
+a
+c
+b
+4. Urinary leakage due to Kidney Defi ciency Combine with : Alpinia Yi Zhi Ren and Mantidis Sang
+Piao Xiao
+History and Comments: 1. The City of Jiao Zuo in the Henan Province was
+the home of the Kingdom of Ye in the early Ming Dynasty (1368 – 1644 CE). The Kingdom Ye was often bullied by its neighbors. In one winter battle, Ye ’ s army was heavily outnumbered by the enemy and was chased deep into the mountains. The weather was bitterly cold, snow swirled through the air, and the provisions had run out. Despair began growing in the troops. Out of des-peration, a soldier dug up some roots from a snow - covered fi eld and gulped them down. To his surprise, the roots were sweet, juicy, and quite delicious. This news was greeted with cheers as it spread quickly through the army. The soldiers consumed the roots for several days, and they found their strength and vigor had returned. Many wounded soldiers had healed. Even the horses that had eaten the vines of the plant became much sturdier than before. The army rushed down from the mountain like lions, broke though the enemy ’ s encirclement, and recovered their lost lands. At the celebration dinner, the soldiers named the plant Shan ( , “ mountain ” ) Yu ( , “ encounter ” ). Somehow this later changed into Shao Yao because Yao means medicine and sounds more proper. Today, Jiao Zuo still produces the best quality Shan Yao in the world. This area was also famous for its Rehmannia Sheng Di Huang , Achyranthes Huai Niu Xi (Cyathula Chuan Niu Xi ) and Chrysanthemum Ju Hua production.</t>
+  </si>
+  <si>
+    <t>&lt;說明、理由、分析&gt;
+根據提供的資料，Shan Yao 的故事記載在 Li Shi-Zhen 的 Materia Medica Compendium (Ben Cao Gang Mu) 中。
+在這個故事中，當時有一位官員的年輕兒子因為吃了山藥的藤蔓而變得更加強壯。軍隊從山上衝下來像老虎一樣，突破敵人的包圍圈，並恢復失去的土地。在慶祝宴會上，士兵們將這種植物命名為 Shan ( 山 “mountain”) Yu Geng, “encounter”).
+然而，這個故事並沒有提到植物最初被稱為什麼。
+因此，我們無法確定山藥最初被軍隊命名的名字是什麼。
+&lt;空行&gt;
+答案: 沒有明確的答案</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中藥材麥門冬（Ophiopogon japonicus）的中文名稱翻譯成英文是什麼意思？ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What does the Chinese name for the herb Ophiopogon japonicus translate to in English? </t>
+  </si>
+  <si>
+    <t>Wheat Door of Winter</t>
+  </si>
+  <si>
+    <t>Form and Preparation: Powder or decoction; stirring with honey enhances its effect to moisten the Lung.
+Dosage: Horses and Cattle: 30 – 60 g Camels: 35 – 75 g
+48 Part 1: Chinese Veterinary Materia Medica
+a
+b
+Ophiopogon Mai Men Dong
+Original Reference: Shen Nong Ben Cao Jing ( Shen Nong ’ s Materia Medica , 1st century BCE)
+Part Used: Root (tuber); sliced tuber with core removed
+Name: Pharmaceutical: Ophiopogonis Japonici, Tuber Botanical: Ophiopogon japonicus Common: Ophiopogon tuber Wade - Giles: Mai - Men - T ’ ung Translation: Wheat Door of Winter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+根據文獻，Ophiopogon japonicus 的中文名稱是 Mai-Men-T’ung， Wade-Giles 名稱是 Ophiopogon tuber，翻譯為「Wheat Door of Winter Energy/Taste」。
+答案: Wheat Door of Winter Energy/Taste
+</t>
+  </si>
+  <si>
+    <t>中藥材茯神（Fu Shen）的主要功效是什麼？</t>
+  </si>
+  <si>
+    <t>What are the main actions of the Chinese herb Fu Shen?</t>
+  </si>
+  <si>
+    <t>安神（Pacify the Heart and calm Shen）、健脾利尿 (Tonify the Spleen and benefi t urination)</t>
+  </si>
+  <si>
+    <t>Part Used: Central part of the fungus
+Name: Pharmaceutical: Poriae Cocos, Sclerotium Botanical: Poria Cocos Common: Tuckahoe, Hoelen, Indian Bread Wade - Giles: Fu - Shen Translation: Poria Spirit
+Energy/Taste: Neutral, sweet, bland
+Channel - Organ: Heart, Spleen
+Actions: 1. Pacify the Heart and calm Shen 2. Tonify the Spleen and benefi t urination
+Form and Preparation: Powder, decoction, or pill
+Dosage: Horses and Cattle: 20 – 60 g Llamas, Alpacas, Goats, Sheep, and Pigs: 5 – 15 g Dogs: 2 – 5 g Cats and Rabbits: 0.5 – 1 g Birds: 0.2 – 2 g</t>
+  </si>
+  <si>
+    <t>Fu Shen 的主要作用是滋補肝腎、益智明目、安神定志。它被用於治療肝腎虛弱、記憶力下降、失眠、焦慮等症狀。
+答案: 滋補肝腎、益智明目、安神定志。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中藥材合歡皮（He Huan Pi）主要用於治療什麼情緒問題？它的中文名稱翻譯成英文是什麼意思？ </t>
+  </si>
+  <si>
+    <t>What emotional issue is the Chinese herb Albizzia Bark (He Huan Pi) primarily used for, and what does its Chinese name translate to in English?</t>
+  </si>
+  <si>
+    <t>緩解抑鬱（Relieve depression）；中文名稱翻譯過來是「集合幸福的樹皮」（Collective Happiness Bark）</t>
+  </si>
+  <si>
+    <t>Cautions and Contraindications: None known
+Side Effects: May cause polyuria
+Albizzia He Huan Pi Original Reference: Shen Nong Ben Cao Jing ( Shen Nong ’ s Materia Medica , 1st century BCE)
+Part Used: Bark
+Name: Pharmaceutical: Albizziae Julibrissin, Cortex Botanical: Albizzia Julibrissin; A. Kalkora Common: Albizzia Bark Wade - Giles: Ho - Huan - Pi Translation: Collective Happiness Bark
+Energy/Taste: Neutral, sweet
+Channel - Organ: Heart, Liver, Lung
+Actions: 1. Calm Shen and relieve depression 2. Invigorate Blood and eliminate swelling</t>
+  </si>
+  <si>
+    <t>&lt;說明、理由、分析&gt;
+ Albizzia Bark (He Huan Pi) 是一種中藥材，主要用於治療情緒相關的疾病。根據文獻，He Huan Pi 的中文名稱「荷花皮」在英文中翻譯為「 Albizzia Bark 」，而其主要用途是治療情緒問題，特別是焦慮和抑鬱症等。
+空行
+答案: Albizzia Bark (He Huan Pi) 是用於治療情緒問題，特別是焦慮和抑鬱症等。</t>
+  </si>
+  <si>
+    <t>學生</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中藥材百合（Lilii, Bulbus）的原始參考文獻是哪部古籍？ </t>
+  </si>
+  <si>
+    <t>What is the original reference text for the Chinese herb Lily bulb (Lilii, Bulbus)?</t>
+  </si>
+  <si>
+    <t>《神農本草經》（Shen Nong Ben Cao Jing），約公元前一世紀著成</t>
+  </si>
+  <si>
+    <t>History and Comments: 1. Bai ( ), means a hundred, He ( ) means harmony.
+The name Bai He means everything has peace and harmony. Bai He has had an important role in several societies. In China, the Bai He fl ower is often given to family members and friends as a gift during happy events or festivals. In ancient France, Bai He repre-sented the majesty of the royal house. In the United States, the Indians in Utah survived a famine by eating Bai He bulbs. In many other countries, Bai He is also regarded as the symbol of innocence and purity.</t>
+  </si>
+  <si>
+    <t>&lt;說明、理由、分析&gt;
+ Lily bulb (Lilii, Bulbus) 的原文參考資料是 Shen Nong Ben Cao Jing (神 農 本 草 經, Shen Nong’s Materia Medica, 1st century BCE)。
+空行
+答案: Shen Nong Ben Cao Jing (神 農 本 草 經, Shen Nong’s Materia Medica, 1st century BCE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">根據五行理論，肺經（LU Channel）的母穴（mother point）是哪個穴位？ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">According to the Five Element theory, what is the mother point for the Lung Channel? </t>
+  </si>
+  <si>
+    <t>LU-9</t>
+  </si>
+  <si>
+    <t>its full power deficiency renal failure Yang points for GI ST-36 and GB-34 for vomiting
+conditions
+LU CHANNEL (METAL)
+LU-9, Shu-stream point (earth) LU-5, He-sea point (water)
+As the mother of metal, earth supports
+a deficient lung
+As the son of metal, water drains the
+excess from the lung
+Use for Lung Deficiency
+Chronic cough/asthma Weak voice Thready pulse Pale tongue
+Use for Lung Excess
+Acute cough Coarse voice Forceful pulse Red tongue
+2.1. The mother and child point of LU Channel.
+PC/HT CHANNEL (FIRE)</t>
+  </si>
+  <si>
+    <t>&lt;說明、理由、分析&gt;
+根據五行理論，肺經的母點是肝經。根據五行理論的第一個規則：補充母點以補充不足。
+空行
+答案: 肝經</t>
+  </si>
+  <si>
+    <t>中藥材天麻（Gastrodia Elata）生長需要與哪種共生真菌獲取營養？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What symbiotic fungus does the Chinese herb Gastrodia Elata need to obtain nutrition for growth? </t>
+  </si>
+  <si>
+    <t>蜜環菌（Armillariella mellea Mi Huan Jun）</t>
+  </si>
+  <si>
+    <t>2. Because Tian Ma has no leaves, it is unable to use photosynthesis for its energy needs. It obtains its nutrition through a symbiotic relationship with the photosynthesis fungus, Armillariella mellea Mi Huan Jun . The highest-quality Tian Ma is collected during winter.
+3. Recent discoveries suggest that Armillariella mellea Mi Huan Jun , the symbiotic fungus necessary for Gastrodia ’ s growth, can be used as a much less expensive substitute for Tian Ma because the essen-tial active ingredients are also found in the fungus.</t>
+  </si>
+  <si>
+    <t>根據文獻，Gastrodia Elata是一種中國藥草，它需要與特定的真菌進行共生關係來獲得營養。根據文獻[1]，Gastrodia Elata需要與Rhizoctonia crocigena真菌進行共生關係來獲得營養。
+&lt;空行&gt;
+答案: Rhizoctonia crocigena</t>
+  </si>
+  <si>
+    <t>中藥材黃芩（Scutellaria Baicalensis）的原始參考文獻是哪部古籍？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the original reference text for the Chinese herb Scutellaria Baicalensis? </t>
+  </si>
+  <si>
+    <t>《神農本草經》（Shen Nong Ben Cao Jing）</t>
+  </si>
+  <si>
+    <t>ba
+Scutellaria Huang Qin
+Original Reference: Shen Nong Ben Cao Jing ( Shen Nong ’ s Materia Medica , 1st century BCE)
+Part Used: Root
+Name: Pharmaceutical: Radix, Scutellariae Baicalensis Botanical: Scutellaria Baicalensis (Skullcap) Common: Scute, Skullcap Wade - Giles: Huang - Ch ’ in Translation: Yellow Root
+Energy/Taste: Cold, bitter
+Channel - Organ: Lung, Gallbladder, Stomach, Large Intestine
+Actions: 1. Clear Heat and dry Dampness 2. Drain Fire and release Toxins 3. Stop bleeding 4. Calm the fetus 5. Sedate ascendant Liver Yang</t>
+  </si>
+  <si>
+    <t>&lt;說明、理由、分析&gt;
+原文中提到，Scutellaria Baicalensis 的原文參考資料是《本草從新》(Thoroughly Revised Materia Medica) by Wu Yi-Luo in 1751。
+答案: 《本草從新》(Thoroughly Revised Materia Medica) by Wu Yi-Luo in 1751。</t>
+  </si>
+  <si>
+    <t>獸醫師</t>
+  </si>
+  <si>
+    <t>關於方劑四物湯（Si Wu Tang）的研究有哪些發現？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are some research findings regarding the formula Si Wu Tang? </t>
+  </si>
+  <si>
+    <t>研究顯示它可以促進產生新的T細胞，改善受損的T細胞活性，恢復免疫系統強度；在模擬更年期骨質流失的大鼠實驗中，能有效預防骨質流失，效果與激素替代療法相當；在小鼠實驗中，能顯著減緩纖維肉瘤生長並延長壽命；在預防小鼠子宮內膜癌發生中，顯示能降低某些腫瘤前驅蛋白水平並抑制腫瘤形成</t>
+  </si>
+  <si>
+    <t>["38. Ma ZC , Gao Y , Liu YX , Tan HL , Lu XQ , Zhang L . The research of Si Wu Tang on hematopoietic cell of blood defi cient mice caused by cyclophosphamide . Chinese Journal of Experimental Traditional Medical Formula 2001 ; 5 : 13 – 15 .
+39. Deng CL . The effect of Si Wu Tang on tissue factor excreted by vascular endothelial cell and its inhibitor . Journal of Nanhua University (Medical Edition) 2001 ; 2 : 120 – 121 .
+40. Huang SL , Peng T , Gong CM , Guan XW . The effect of Si Wu Tang on HDL - C and LDL - C of normal animal . Journal of Liberation Army Medical High Training School 1999 ; 1 : 37 – 38 .],["47. Hsu HY , Ho YH , Lin CC . Protection of mouse bone marrow by Si Wu Tang against whole body irradiation . Journal of Ethnopharmacology 1996 ; 52 : 113 – 117 .
+48. Wang HL , Song YJ , Zhao GD , Feng X , Gong CM . Research of Si Wu Tang on toxicity of lidocaine . Pharmacology and Clinics of Chinese Materia Medica 1997 ; 3 : 7 – 8 .
+49. Yang Y , Rong R , Lu YW , Yuan JY . The comparative study of Si Wu Tang and its components on the free radical metabo-lism and immune action . Journal of Shandong University of Traditional Chinese Medicine 2002 ; 4 : 299 – 300 ."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;說明、理由、分析&gt;
+根據檢索結果，Si Wu Tang 的研究發現包括：
+1. Si Wu Tang 可以顯著增加巨噬細胞的吞噬活性（phagocytosis），增加胸腺和胰腺的重量，提高抗體滴度，表明它對人體的免疫功能有正面影響。 
+2. Si Wu Tang 可以促進造血祖細胞的再生，增強血液的生成功能。 
+3. Si Wu Tang 可以抑制子宮平滑肌的收縮，促進子宮平滑肌的自我調節功能。 
+4. Si Wu Tang 的各個成分有相互增強的效果，整體效果比單一成分更有效。 
+5. Si Wu Tang 可以降低血液中的白細胞生成素（LPO）含量，表明它具有抗氧化功能。 
+6. Si Wu Tang 可以提高正常動物的高密度脂蛋白膽固醇（HDL-C）和低密度脂蛋白膽固醇（LDL-C）的含量。 
+這些研究發現表明，Si Wu Tang 有多種生物活性，包括增強免疫功能、促進造血、抑制子宮平滑肌收縮、具有抗氧化功能等。這些研究結果支持古代中醫理論中對於中藥的作用機制的描述。
+&lt;空行&gt;
+答案: Si Wu Tang 的研究發現包括增強免疫功能、促進造血、抑制子宮平滑肌收縮、具有抗氧化功能等。</t>
+  </si>
+  <si>
+    <t>使用新方劑蕭瘿散（Xiao Ying San）時，原方中的海馬（Hai Ma）需要被取代，主要考量是什麼？取代海馬的藥材是哪些？</t>
+  </si>
+  <si>
+    <t>Dr. Xie's comments indicate that when using the new formula Xiao Ying San, the original formula's Hai Ma needs to be substituted. What is the main consideration for this, and which herbs substitute for Hai Ma?</t>
+  </si>
+  <si>
+    <t>主要考量是因為海馬（Hippocampus）是瀕危動物，不再使用。蕭瘿散中的肉蓯蓉（Rou Cong Rong）和菟絲子（Tu Si Zi）取代了原方（指蕭瘿散或其基礎方）中的海馬。</t>
+  </si>
+  <si>
+    <t>Cautions and Contraindications: Do not use in patients with hypertension or Yin Defi ciency
+Dr. Xie ’ s Comments: Xiao Ying San can be used for both hyperthyroidism and hypothyroidism, especially in patients with renal failure. But Hai Ma (Hippocampus) in the original formula should be substituted with Rou Cong Rong (Cistanche) and Tu Si Zi (Cuscuta) because
+Hai Ma (Hippocampus) is a Seahorse, which is endan-gered and no longer used.
+Clinical and Pharmacological Studies: This formula is similar to Hai Zao Yu Hu Tang , but it has been adapted for patients with renal insuffi ciency. 16</t>
+  </si>
+  <si>
+    <t>&lt;說明、理由、分析&gt;
+ Hai Ma (Hippocampus) 在原配方中應該被替換的主要考慮是因為它是一種瀕臨絕種的海馬，已不再可用。根據 Dr. Xie 的評論，Hai Ma 可以被 Rou Cong Rong (Cistanche) 和 Tu Si Zi (Cuscuta) 取代。
+引用來源編號：[1, 2]
+答案: 
+ Rou Cong Rong (Cistanche) 和 Tu Si Zi (Cuscuta)</t>
+  </si>
+  <si>
+    <t>描述冷閉證（Cold Bi Syndrome）的主要臨床症狀。</t>
+  </si>
+  <si>
+    <t>Describe the main clinical signs of Cold Bi Syndrome</t>
+  </si>
+  <si>
+    <t>臨床症狀包括關節疼痛，運動困難（急性），疼痛在受熱時緩解，遇冷時加劇，舌質紫且舌苔淡白，脈象弦而遲</t>
+  </si>
+  <si>
+    <t>Herbal Medicine. Fang Feng Tang (Siler powder)
+COLD BI SYNDROME
+Cold Bi is also called painful Bi (Tong Bi), which is charac-terized by severe pain. The condition is caused by a combina-tion of wind-cold-damp, but the primary pathogen is cold.
+Clinical Signs. Pain in joints, difficult movement (acute) Pain relief with exposure to heat Pain exacerbated with exposure to cold Tongue: Purple with slightly pale coating Pulse: Wiry and slow
+8
+Acupuncture for Treatment of Musculoskeletal and Neurological Disorders</t>
+  </si>
+  <si>
+    <t>&lt;說明、理由、分析&gt;
+ Clinical signs of Cold Bi Syndrome include:
+冷 Bi 症候群的主要臨床表現包括：
+冷的四肢；白色的厚舌苔；和深、 wiry 脈。
+&lt;空行&gt;
+答案: 冷 Bi 症候群的主要臨床表現包括冷的四肢；白色的厚舌苔；和深、 wiry 脈。
+資料來源：
+[1] Cognitive Dysfunction Syndrome A Disease of Canine and Feline Brain Aging.pdf</t>
+  </si>
+  <si>
+    <t>在衛氣營血（Wei Qi Ying Xue）四個階段中，哪個階段被描述為最深層且最嚴重，與肝腎病理相關？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Among the four stages of Wei Qi Ying Xue, which stage is described as the deepest and most severe, and is associated with Liver and Kidney pathology? </t>
+  </si>
+  <si>
+    <t>血分證（Xue Stage）</t>
+  </si>
+  <si>
+    <t>Xue Stage/Phase ( , Blood Stage Pattern): This is the deepest and most severe of the Wei Qi Ying Xue Patterns. It is associated with Liver and Kidney pathol-ogy. The main clinical signs are fever, coma, petechiae and ecchymosis, rash, bloody urine or feces, seizure, a deep - red tongue, and a thin or rapid pulse. The typical classical herbal formula for the treatment of Xue Stage is Xi Jiao Di Huang Tang .
+Ying Qi ( Nutrient Qi ). Ying Qi is derived from Gu Qi (Food Qi ). It circulates in the blood vessels, produces Blood, and nourishes the whole body. Hemoglobin and other serum proteins are a part of Ying Qi . It is also called Ying Xue (Nutrient Blood or Ying Blood) due to its association with Blood and its fl ow within blood vessels.</t>
+  </si>
+  <si>
+    <t>&lt;說明、理由、分析&gt;
+答案: Xue Stage/Phase (Ifl7AtE, Blood Stage Pattern)
+空行
+理由：根據提供的文獻，Xue Stage/Phase (Ifl7AtE, Blood Stage Pattern) 是描述為最深最嚴重的 Wei Qi Ying Xue 四個階段之一，與肝腎病理學相關聯。</t>
   </si>
 </sst>
 </file>
@@ -9553,7 +9859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9572,6 +9878,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9878,10 +10190,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M120"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q63" sqref="Q63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -9891,8 +10203,7 @@
     <col min="6" max="6" width="69.19921875" customWidth="1"/>
     <col min="7" max="7" width="40.19921875" style="1" customWidth="1"/>
     <col min="8" max="8" width="133" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9" style="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16">
@@ -11431,7 +11742,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="95" hidden="1">
+    <row r="49" spans="1:10" ht="95" hidden="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -11463,7 +11774,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="80" hidden="1">
+    <row r="50" spans="1:10" ht="80" hidden="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -11495,7 +11806,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="409.6" hidden="1">
+    <row r="51" spans="1:10" ht="136" hidden="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -11518,7 +11829,7 @@
         <v>16</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>109</v>
@@ -11526,11 +11837,8 @@
       <c r="J51" s="3">
         <v>153</v>
       </c>
-      <c r="M51" s="6" t="s">
-        <v>408</v>
-      </c>
     </row>
-    <row r="52" spans="1:13" ht="95" hidden="1">
+    <row r="52" spans="1:10" ht="95" hidden="1">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -11562,7 +11870,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="95" hidden="1">
+    <row r="53" spans="1:10" ht="95" hidden="1">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -11594,7 +11902,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="95" hidden="1">
+    <row r="54" spans="1:10" ht="95" hidden="1">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -11626,7 +11934,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="80" hidden="1">
+    <row r="55" spans="1:10" ht="80" hidden="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -11658,7 +11966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="113" hidden="1">
+    <row r="56" spans="1:10" ht="113" hidden="1">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -11690,7 +11998,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="80" hidden="1">
+    <row r="57" spans="1:10" ht="80" hidden="1">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -11722,7 +12030,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="112" hidden="1">
+    <row r="58" spans="1:10" ht="112" hidden="1">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -11754,7 +12062,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="80" hidden="1">
+    <row r="59" spans="1:10" ht="80" hidden="1">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -11786,7 +12094,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="80" hidden="1">
+    <row r="60" spans="1:10" ht="80" hidden="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -11818,7 +12126,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="80" hidden="1">
+    <row r="61" spans="1:10" ht="80" hidden="1">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -11850,7 +12158,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="95">
+    <row r="62" spans="1:10" ht="95">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -11882,7 +12190,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="95">
+    <row r="63" spans="1:10" ht="95">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -11914,7 +12222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="95">
+    <row r="64" spans="1:10" ht="95">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -13736,6 +14044,366 @@
       </c>
       <c r="J120" s="3">
         <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="409.6">
+      <c r="A121" s="7">
+        <v>120</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="I121" s="7"/>
+      <c r="J121" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="409.6">
+      <c r="A122" s="7">
+        <v>121</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="H122" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="I122" s="7"/>
+      <c r="J122" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="409.6">
+      <c r="A123" s="7">
+        <v>122</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="I123" s="7"/>
+      <c r="J123" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="409.6">
+      <c r="A124" s="7">
+        <v>123</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H124" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="I124" s="7"/>
+      <c r="J124" s="8" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="409.6">
+      <c r="A125" s="7">
+        <v>124</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="I125" s="7"/>
+      <c r="J125" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="370">
+      <c r="A126" s="7">
+        <v>125</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="I126" s="7"/>
+      <c r="J126" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="409.6">
+      <c r="A127" s="7">
+        <v>126</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="I127" s="7"/>
+      <c r="J127" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="409.6">
+      <c r="A128" s="7">
+        <v>127</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="H128" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="I128" s="7"/>
+      <c r="J128" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="409.6">
+      <c r="A129" s="7">
+        <v>128</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="I129" s="7"/>
+      <c r="J129" s="8" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="409.6">
+      <c r="A130" s="7">
+        <v>129</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="H130" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="I130" s="7"/>
+      <c r="J130" s="8" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="409.6">
+      <c r="A131" s="7">
+        <v>130</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="I131" s="7"/>
+      <c r="J131" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="409.6">
+      <c r="A132" s="7">
+        <v>131</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="H132" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="I132" s="7"/>
+      <c r="J132" s="8" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>
